--- a/materiais/02) Planilhas/Calculadora Freios - Felipe.xlsx
+++ b/materiais/02) Planilhas/Calculadora Freios - Felipe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\TCC\Planilhas freios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\TCC\materiais\02) Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7F796-21AB-4689-AEDC-C8035AA0CD72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FC018-A51B-47B0-A561-1D92A5BD867D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,13 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="a" localSheetId="3">Calor!$F$5</definedName>
+    <definedName name="a" localSheetId="3">Calor!$D$5</definedName>
     <definedName name="a">Aceleração!$G$6</definedName>
     <definedName name="A_cm">'Força no pedal'!$G$15</definedName>
     <definedName name="A_d">Calor!$I$18</definedName>
     <definedName name="A_p">Calor!#REF!</definedName>
     <definedName name="Acm">Aceleração!$G$28</definedName>
-    <definedName name="ag" localSheetId="3">Calor!$D$5</definedName>
+    <definedName name="ag" localSheetId="3">Calor!$C$5</definedName>
     <definedName name="ag">[1]Rocha!$E$5</definedName>
     <definedName name="alpha">'Força no pedal'!#REF!</definedName>
     <definedName name="Apist_f">'Força no pedal'!$G$16</definedName>
@@ -42,7 +42,7 @@
     <definedName name="c_d">[1]Rocha!$G$9</definedName>
     <definedName name="c_p" localSheetId="3">Calor!$F$14</definedName>
     <definedName name="c_p">[1]Rocha!$F$9</definedName>
-    <definedName name="D">Calor!$B$5</definedName>
+    <definedName name="D">Calor!$J$18</definedName>
     <definedName name="ef_d">Calor!$I$14</definedName>
     <definedName name="ef_p">Calor!$H$14</definedName>
     <definedName name="F_pd">Aceleração!$G$31</definedName>
@@ -60,7 +60,7 @@
     <definedName name="gamma" localSheetId="3">Calor!$K$14</definedName>
     <definedName name="gamma">[1]Rocha!$K$9</definedName>
     <definedName name="h">Menu!$E$10</definedName>
-    <definedName name="I" localSheetId="3">Calor!$B$5</definedName>
+    <definedName name="I" localSheetId="3">Calor!$J$18</definedName>
     <definedName name="I">[1]Rocha!$C$5</definedName>
     <definedName name="I_w">'Força no pedal'!$G$12</definedName>
     <definedName name="Iw">Aceleração!$G$14</definedName>
@@ -118,14 +118,14 @@
     <definedName name="T_max">'Força no pedal'!$G$27</definedName>
     <definedName name="tf">#REF!</definedName>
     <definedName name="ti">#REF!</definedName>
-    <definedName name="time_stp">Calor!$I$5</definedName>
+    <definedName name="time_stp">Calor!$G$5</definedName>
     <definedName name="Tmax">Aceleração!$G$15</definedName>
     <definedName name="Tmax_R">Aceleração!$G$16</definedName>
-    <definedName name="ts">Calor!$G$5</definedName>
+    <definedName name="ts">Calor!$F$5</definedName>
     <definedName name="V">#REF!</definedName>
     <definedName name="v0">[2]Planilha1!$C$3</definedName>
     <definedName name="vf">[2]Planilha1!$C$4</definedName>
-    <definedName name="Vi" localSheetId="3">Calor!$C$5</definedName>
+    <definedName name="Vi" localSheetId="3">Calor!$B$5</definedName>
     <definedName name="vi">#REF!</definedName>
     <definedName name="λ">'Força no pedal'!$G$10</definedName>
     <definedName name="χ">Menu!$H$10</definedName>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Fpd</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>4000 &lt; Re &lt; 40000</t>
-  </si>
-  <si>
-    <t>Diâmetro</t>
   </si>
   <si>
     <t>Velocidade</t>
@@ -761,6 +758,18 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>a_fcticia</t>
+  </si>
+  <si>
+    <t>Aceleração final</t>
+  </si>
+  <si>
+    <t>Aceleração fictícia (Não prevê a roda travando)</t>
+  </si>
+  <si>
+    <t>Diâmetro disco</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1074,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,9 +1174,6 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,12 +1198,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,9 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,9 +1238,6 @@
     <xf numFmtId="11" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,6 +1262,20 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,16 +1325,19 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,14 +1349,9 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Ênfase1" xfId="3" builtinId="30"/>
@@ -1354,7 +1360,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2409,7 +2426,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2549387</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>4969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2692,6 +2709,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589759</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60073E68-589A-4947-9BA3-98964D7D059E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="3914775"/>
+          <a:ext cx="6323809" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85116</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7500197D-DB31-412A-8F01-74CA494F21E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220324" y="5897391"/>
+          <a:ext cx="3971317" cy="1865197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3106,7 +3211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3117,148 +3224,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="71" t="s">
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="K8" s="60" t="s">
         <v>148</v>
-      </c>
-      <c r="K8" s="65" t="s">
-        <v>149</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="53" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="19"/>
@@ -3266,34 +3373,34 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="67">
+      <c r="C10" s="62">
         <v>0.7572000000000001</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="62">
         <v>0.78280000000000005</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="62">
         <v>0.35</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="63">
         <f>LF/(LF+LR)</f>
         <v>0.49168831168831173</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="63">
         <f>LR/(LF+LR)</f>
         <v>0.50831168831168838</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="64">
         <f>h/(LR+LF)</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="62">
         <v>280</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="62">
         <v>70</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="65">
         <f>I10+J10</f>
         <v>350</v>
       </c>
@@ -3316,110 +3423,110 @@
       <c r="N11" s="19"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
     <row r="24" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
     </row>
     <row r="25" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3439,7 +3546,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,52 +3562,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3518,7 +3625,7 @@
       <c r="H6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="81" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3536,7 +3643,7 @@
       <c r="H7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="80"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3698,7 +3805,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>10</v>
@@ -3715,7 +3822,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>21</v>
@@ -3757,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3775,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3968,7 @@
       <c r="F26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="56">
         <f>Nf/Apistf</f>
         <v>7902031.3630436789</v>
       </c>
@@ -3876,7 +3983,7 @@
       <c r="F27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="56">
         <f>Nr/Apistr</f>
         <v>2249229.4273992237</v>
       </c>
@@ -3946,7 +4053,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>102</v>
@@ -4000,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,56 +4127,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4082,8 +4189,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <f>Aceleração!G34</f>
-        <v>410.31253296230392</v>
+        <v>411</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>12</v>
@@ -4117,7 +4223,7 @@
       </c>
       <c r="G8" s="20">
         <f>Fpil*rel_pedal</f>
-        <v>2010.5314115152894</v>
+        <v>2013.9</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>12</v>
@@ -4133,7 +4239,7 @@
       <c r="F9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <f>Aceleração!G32</f>
         <v>0.77842856431027729</v>
       </c>
@@ -4200,7 +4306,7 @@
       </c>
       <c r="G13" s="21">
         <f>(1-λ)*Fpd</f>
-        <v>1565.055080166562</v>
+        <v>1567.6772856644675</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>12</v>
@@ -4216,7 +4322,7 @@
       </c>
       <c r="G14" s="21">
         <f>(λ)*Fpd</f>
-        <v>445.47633134872734</v>
+        <v>446.2227143355326</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>12</v>
@@ -4276,9 +4382,9 @@
       <c r="F18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="56">
         <f>(1-λ)*Fpd/A_cm</f>
-        <v>7902031.3630436789</v>
+        <v>7915270.9929758022</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>22</v>
@@ -4292,9 +4398,9 @@
       <c r="F19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="56">
         <f>(λ)*Fpd/A_cm</f>
-        <v>2249229.4273992232</v>
+        <v>2252997.9476547209</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>22</v>
@@ -4308,7 +4414,7 @@
       </c>
       <c r="G20" s="21">
         <f>P_f*Apist_f</f>
-        <v>7757.8034866054049</v>
+        <v>7770.8014668120077</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>12</v>
@@ -4322,7 +4428,7 @@
       </c>
       <c r="G21" s="21">
         <f>P_r*Apist_r</f>
-        <v>2042.1203817243027</v>
+        <v>2045.5418966346742</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>12</v>
@@ -4351,7 +4457,7 @@
       </c>
       <c r="G23" s="21">
         <f>N_f*mi_at</f>
-        <v>3103.1213946421622</v>
+        <v>3108.3205867248034</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>12</v>
@@ -4367,7 +4473,7 @@
       </c>
       <c r="G24" s="21">
         <f>N_r*mi_at</f>
-        <v>816.84815268972113</v>
+        <v>818.21675865386976</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>12</v>
@@ -4376,7 +4482,7 @@
     <row r="25" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>10</v>
@@ -4392,7 +4498,7 @@
     <row r="26" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>21</v>
@@ -4414,7 +4520,7 @@
       </c>
       <c r="G27" s="21">
         <f>2*Fat_f*Rdf</f>
-        <v>588.97244070308238</v>
+        <v>589.95924736036773</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>13</v>
@@ -4430,32 +4536,55 @@
       </c>
       <c r="G28" s="21">
         <f>2*Fat_r*Rdr</f>
-        <v>130.69570443035539</v>
+        <v>130.91468138461917</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="70">
+        <f>((2*Rp*T_max) - (Mt*g*(1-Ψ)*mi_max*Rp^2))/((Mt*g*χ*mi_max*Rp^2)+(2*I_w*g))*g</f>
+        <v>14.771844709685135</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="64">
-        <f>((2*Rp*T_max) - (Mt*g*(1-Ψ)*mi_max*Rp^2))/((Mt*g*χ*mi_max*Rp^2)+(2*I_w*g))</f>
-        <v>1.4999999999999987</v>
-      </c>
-      <c r="H29" s="22" t="s">
+      <c r="G30" s="59" t="str">
+        <f>IF(G29/g&lt;=a,G29/g,"Roda travada")</f>
+        <v>Roda travada</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Roda travada"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4466,8 +4595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA85FF7-236D-41E8-8145-6A10F1623DA0}">
   <dimension ref="B3:K220"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,93 +4605,90 @@
     <col min="4" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="9" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="10" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="87" t="s">
+      <c r="B3" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="42" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="92"/>
+      <c r="F4" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>136</v>
+      <c r="G4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <f>2*Rdiscf</f>
-        <v>0.1898</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B5" s="36">
         <f>100/3.6</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="D5" s="94">
+      <c r="C5" s="14">
         <f>Aceleração!G6</f>
         <v>1.5</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="35">
+      <c r="D5" s="96">
         <f>ag*g</f>
         <v>14.715</v>
       </c>
-      <c r="G5" s="43">
+      <c r="E5" s="96"/>
+      <c r="F5" s="42">
         <f>Vi/a</f>
         <v>1.8877185034167705</v>
       </c>
-      <c r="I5" s="59">
+      <c r="G5" s="55">
         <v>0.1</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
@@ -4572,16 +4698,13 @@
       <c r="C8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="88"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -4591,83 +4714,80 @@
       <c r="C9" s="15">
         <v>1.2922</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="93">
         <f>17.2/1000000</f>
         <v>1.7199999999999998E-5</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="16">
         <f>1.004832*1000</f>
         <v>1004.832</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="87" t="s">
+      <c r="B11" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="88"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="H11" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="92"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="87" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="88"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="92"/>
       <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="D13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="F13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="H13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>62</v>
@@ -4700,14 +4820,14 @@
         <f>SQRT(k_d*rho_d*c_d)</f>
         <v>13783.757833043934</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <f>1/(1+(ef_p/ef_d))</f>
         <v>0.86583329224733541</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>63</v>
@@ -4716,24 +4836,27 @@
         <v>64</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="88"/>
+        <v>142</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="J16" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="88"/>
     </row>
     <row r="17" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>46</v>
@@ -4742,25 +4865,28 @@
         <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="44"/>
+        <v>126</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="88"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>mi</f>
         <v>0.4</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="44">
         <f>Pf</f>
         <v>7902031.3630436789</v>
       </c>
@@ -4776,25 +4902,29 @@
         <f>80.8/1000</f>
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>0.109</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="43">
         <f>(F18+r_d)/2</f>
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <f>2*(360*PI()/360)*((r_d^2)-(rt^2))</f>
         <v>3.3629869710735727E-2</v>
       </c>
-      <c r="K18" s="45"/>
+      <c r="J18" s="89">
+        <f>2*Rdiscf</f>
+        <v>0.1898</v>
+      </c>
+      <c r="K18" s="89"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>66</v>
@@ -4805,10 +4935,10 @@
       <c r="F21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="13" t="s">
         <v>112</v>
       </c>
@@ -4818,16 +4948,16 @@
         <v>69</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>114</v>
@@ -4836,7 +4966,7 @@
         <v>113</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -4847,9 +4977,9 @@
         <f t="shared" ref="C23:C54" si="0">IFERROR(Vi-(a*B23),"-")</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="D23" s="40">
-        <f>2*(Apistf/A_d)*gamma*mi_d*pmax*rm*omega0</f>
-        <v>1653111.493471927</v>
+      <c r="D23" s="39">
+        <f>2*(Apistf)*gamma*mi_d*pmax*rm*omega0</f>
+        <v>55593.924142780656</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E54" si="1">IFERROR((rho_ar*I*C23/mi_ar),"-")</f>
@@ -4860,22 +4990,19 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" ref="G23:G54" si="3">IFERROR(0.193*(E23^0.618)*(F23^0.33)*k_ar/D,"-")</f>
-        <v>66.54965074684317</v>
+        <f t="shared" ref="G23:G54" si="3">IFERROR(0.193*(E23^0.618)*(F23^0.33)*k_ar/(2*r_d),"-")</f>
+        <v>57.940934457572631</v>
       </c>
       <c r="H23" s="31">
-        <f t="shared" ref="H23:H54" si="4">IFERROR(0.027*(E23^0.805)*(F23^0.33)*k_ar/D,"-")</f>
-        <v>103.69072242054578</v>
+        <f t="shared" ref="H23:H54" si="4">IFERROR(0.027*(E23^0.805)*(F23^0.33)*k_ar/(2*r_d),"-")</f>
+        <v>90.277518878071518</v>
       </c>
       <c r="I23" s="32">
         <f>IFERROR(IF(E23&lt;40000,G23,H23),"-")</f>
-        <v>103.69072242054578</v>
-      </c>
-      <c r="J23" s="97">
-        <f>D23*A_d</f>
-        <v>55593.924142780663</v>
-      </c>
-      <c r="K23" s="39"/>
+        <v>90.277518878071518</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="26">
@@ -4886,9 +5013,9 @@
         <f t="shared" si="0"/>
         <v>26.30627777777778</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="40">
         <f t="shared" ref="D24:D55" si="6">IFERROR(D23*(1-(B23/ts)),"-")</f>
-        <v>1653111.493471927</v>
+        <v>55593.924142780656</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="1"/>
@@ -4900,20 +5027,17 @@
       </c>
       <c r="G24" s="31">
         <f t="shared" si="3"/>
-        <v>64.348353112429422</v>
+        <v>56.024391838252768</v>
       </c>
       <c r="H24" s="31">
         <f t="shared" si="4"/>
-        <v>99.245593159730177</v>
+        <v>86.407401750994438</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" ref="I24:I87" si="7">IFERROR(IF(E24&lt;40000,G24,H24),"-")</f>
-        <v>99.245593159730177</v>
-      </c>
-      <c r="J24" s="97">
-        <f>D24*A_d</f>
-        <v>55593.924142780663</v>
-      </c>
+        <v>86.407401750994438</v>
+      </c>
+      <c r="J24" s="67"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="26">
@@ -4924,9 +5048,9 @@
         <f t="shared" si="0"/>
         <v>24.834777777777777</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="40">
         <f t="shared" si="6"/>
-        <v>1565539.5652167452</v>
+        <v>52648.891605240999</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="1"/>
@@ -4938,20 +5062,17 @@
       </c>
       <c r="G25" s="31">
         <f t="shared" si="3"/>
-        <v>62.099482076746732</v>
+        <v>54.066429808103344</v>
       </c>
       <c r="H25" s="31">
         <f t="shared" si="4"/>
-        <v>94.751684010574621</v>
+        <v>82.494814794527812</v>
       </c>
       <c r="I25" s="32">
         <f t="shared" si="7"/>
-        <v>94.751684010574621</v>
-      </c>
-      <c r="J25" s="97">
-        <f>D25*A_d</f>
-        <v>52648.891605240999</v>
-      </c>
+        <v>82.494814794527812</v>
+      </c>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="26">
@@ -4962,9 +5083,9 @@
         <f t="shared" si="0"/>
         <v>23.363277777777778</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="40">
         <f t="shared" si="6"/>
-        <v>1399673.7793611614</v>
+        <v>47070.846837448924</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" si="1"/>
@@ -4976,20 +5097,17 @@
       </c>
       <c r="G26" s="31">
         <f t="shared" si="3"/>
-        <v>59.799093089831416</v>
+        <v>52.06361407545873</v>
       </c>
       <c r="H26" s="31">
         <f t="shared" si="4"/>
-        <v>90.205517066750673</v>
+        <v>78.536729996648063</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="7"/>
-        <v>90.205517066750673</v>
-      </c>
-      <c r="J26" s="97">
-        <f>D26*A_d</f>
-        <v>47070.846837448924</v>
-      </c>
+        <v>78.536729996648063</v>
+      </c>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="26">
@@ -5000,9 +5118,9 @@
         <f t="shared" si="0"/>
         <v>21.891777777777779</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="40">
         <f t="shared" si="6"/>
-        <v>1177234.822997527</v>
+        <v>39590.253716347863</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" si="1"/>
@@ -5014,20 +5132,17 @@
       </c>
       <c r="G27" s="31">
         <f t="shared" si="3"/>
-        <v>57.442641571087798</v>
+        <v>50.011987936662678</v>
       </c>
       <c r="H27" s="31">
         <f t="shared" si="4"/>
-        <v>85.603129757258756</v>
+        <v>74.529697375815189</v>
       </c>
       <c r="I27" s="32">
         <f t="shared" si="7"/>
-        <v>85.603129757258756</v>
-      </c>
-      <c r="J27" s="97">
-        <f>D27*A_d</f>
-        <v>39590.25371634787</v>
-      </c>
+        <v>74.529697375815189</v>
+      </c>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
@@ -5038,9 +5153,9 @@
         <f t="shared" si="0"/>
         <v>20.420277777777777</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="40">
         <f t="shared" si="6"/>
-        <v>927783.47294364299</v>
+        <v>31201.237314868617</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" si="1"/>
@@ -5052,20 +5167,17 @@
       </c>
       <c r="G28" s="31">
         <f t="shared" si="3"/>
-        <v>55.02484438914243</v>
+        <v>47.906951674583638</v>
       </c>
       <c r="H28" s="31">
         <f t="shared" si="4"/>
-        <v>80.939969798461817</v>
+        <v>70.469753521780063</v>
       </c>
       <c r="I28" s="32">
         <f t="shared" si="7"/>
-        <v>80.939969798461817</v>
-      </c>
-      <c r="J28" s="97">
-        <f>D28*A_d</f>
-        <v>31201.23731486862</v>
-      </c>
+        <v>70.469753521780063</v>
+      </c>
+      <c r="J28" s="67"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -5077,9 +5189,9 @@
         <f t="shared" si="0"/>
         <v>18.948777777777778</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="40">
         <f t="shared" si="6"/>
-        <v>682041.46446506027</v>
+        <v>22936.965587279366</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" si="1"/>
@@ -5091,20 +5203,17 @@
       </c>
       <c r="G29" s="31">
         <f t="shared" si="3"/>
-        <v>52.539496840692443</v>
+        <v>45.743103212676267</v>
       </c>
       <c r="H29" s="31">
         <f t="shared" si="4"/>
-        <v>76.210758050250689</v>
+        <v>66.352302192374225</v>
       </c>
       <c r="I29" s="32">
         <f t="shared" si="7"/>
-        <v>76.210758050250689</v>
-      </c>
-      <c r="J29" s="97">
-        <f>D29*A_d</f>
-        <v>22936.965587279366</v>
-      </c>
+        <v>66.352302192374225</v>
+      </c>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -5115,9 +5224,9 @@
         <f t="shared" si="0"/>
         <v>17.477277777777779</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="40">
         <f t="shared" si="6"/>
-        <v>465258.67723362765</v>
+        <v>15646.588697156143</v>
       </c>
       <c r="E30" s="18">
         <f t="shared" si="1"/>
@@ -5129,20 +5238,17 @@
       </c>
       <c r="G30" s="31">
         <f t="shared" si="3"/>
-        <v>49.979226164352482</v>
+        <v>43.514023513734408</v>
       </c>
       <c r="H30" s="31">
         <f t="shared" si="4"/>
-        <v>71.409306166199286</v>
+        <v>62.171955552039563</v>
       </c>
       <c r="I30" s="32">
         <f t="shared" si="7"/>
-        <v>71.409306166199286</v>
-      </c>
-      <c r="J30" s="97">
-        <f>D30*A_d</f>
-        <v>15646.588697156145</v>
-      </c>
+        <v>62.171955552039563</v>
+      </c>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="26">
@@ -5153,9 +5259,9 @@
         <f t="shared" si="0"/>
         <v>16.00577777777778</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="40">
         <f t="shared" si="6"/>
-        <v>292732.38505920832</v>
+        <v>9844.551969654096</v>
       </c>
       <c r="E31" s="18">
         <f t="shared" si="1"/>
@@ -5167,20 +5273,17 @@
       </c>
       <c r="G31" s="31">
         <f t="shared" si="3"/>
-        <v>47.335152208145836</v>
+        <v>41.211981142688437</v>
       </c>
       <c r="H31" s="31">
         <f t="shared" si="4"/>
-        <v>66.528268989164118</v>
+        <v>57.922318596987843</v>
       </c>
       <c r="I31" s="32">
         <f t="shared" si="7"/>
-        <v>66.528268989164118</v>
-      </c>
-      <c r="J31" s="97">
-        <f>D31*A_d</f>
-        <v>9844.5519696540978</v>
-      </c>
+        <v>57.922318596987843</v>
+      </c>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="26">
@@ -5191,9 +5294,9 @@
         <f t="shared" si="0"/>
         <v>14.534277777777779</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="40">
         <f t="shared" si="6"/>
-        <v>168674.74213019633</v>
+        <v>5672.5096013304483</v>
       </c>
       <c r="E32" s="18">
         <f t="shared" si="1"/>
@@ -5205,20 +5308,17 @@
       </c>
       <c r="G32" s="31">
         <f t="shared" si="3"/>
-        <v>44.596408200816889</v>
+        <v>38.827515029885525</v>
       </c>
       <c r="H32" s="31">
         <f t="shared" si="4"/>
-        <v>61.55880003615497</v>
+        <v>53.595689205789974</v>
       </c>
       <c r="I32" s="32">
         <f t="shared" si="7"/>
-        <v>61.55880003615497</v>
-      </c>
-      <c r="J32" s="97">
-        <f>D32*A_d</f>
-        <v>5672.5096013304492</v>
-      </c>
+        <v>53.595689205789974</v>
+      </c>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
@@ -5229,9 +5329,9 @@
         <f t="shared" si="0"/>
         <v>13.06277777777778</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="40">
         <f t="shared" si="6"/>
-        <v>88256.360023751142</v>
+        <v>2968.0498887425356</v>
       </c>
       <c r="E33" s="18">
         <f t="shared" si="1"/>
@@ -5243,20 +5343,17 @@
       </c>
       <c r="G33" s="31">
         <f t="shared" si="3"/>
-        <v>41.7494433209093</v>
+        <v>36.348827258296261</v>
       </c>
       <c r="H33" s="31">
         <f t="shared" si="4"/>
-        <v>56.490058184993636</v>
+        <v>49.182628639962353</v>
       </c>
       <c r="I33" s="32">
         <f t="shared" si="7"/>
-        <v>56.490058184993636</v>
-      </c>
-      <c r="J33" s="97">
-        <f>D33*A_d</f>
-        <v>2968.049888742536</v>
-      </c>
+        <v>49.182628639962353</v>
+      </c>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
@@ -5267,9 +5364,9 @@
         <f t="shared" si="0"/>
         <v>11.59127777777778</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="40">
         <f t="shared" si="6"/>
-        <v>41503.435864769213</v>
+        <v>1395.7551406800649</v>
       </c>
       <c r="E34" s="18">
         <f t="shared" si="1"/>
@@ -5281,20 +5378,17 @@
       </c>
       <c r="G34" s="31">
         <f t="shared" si="3"/>
-        <v>38.776970644994492</v>
+        <v>33.760867102843825</v>
       </c>
       <c r="H34" s="31">
         <f t="shared" si="4"/>
-        <v>51.308476666873453</v>
+        <v>44.671325098039361</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="7"/>
-        <v>51.308476666873453</v>
-      </c>
-      <c r="J34" s="97">
-        <f>D34*A_d</f>
-        <v>1395.7551406800651</v>
-      </c>
+        <v>44.671325098039361</v>
+      </c>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
@@ -5305,9 +5399,9 @@
         <f t="shared" si="0"/>
         <v>10.119777777777781</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="40">
         <f t="shared" si="6"/>
-        <v>17318.802738266088</v>
+        <v>582.42907963382163</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="1"/>
@@ -5319,20 +5413,17 @@
       </c>
       <c r="G35" s="31">
         <f t="shared" si="3"/>
-        <v>35.656309366535261</v>
+        <v>31.043887696185287</v>
       </c>
       <c r="H35" s="31">
         <f t="shared" si="4"/>
-        <v>45.996633728045971</v>
+        <v>40.046610465977636</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="7"/>
-        <v>45.996633728045971</v>
-      </c>
-      <c r="J35" s="97">
-        <f>D35*A_d</f>
-        <v>582.42907963382163</v>
-      </c>
+        <v>40.046610465977636</v>
+      </c>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="26">
@@ -5343,9 +5434,9 @@
         <f t="shared" si="0"/>
         <v>8.6482777777777784</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="40">
         <f t="shared" si="6"/>
-        <v>6309.4476631831967</v>
+        <v>212.18590285955688</v>
       </c>
       <c r="E36" s="18">
         <f t="shared" si="1"/>
@@ -5357,20 +5448,17 @@
       </c>
       <c r="G36" s="31">
         <f t="shared" si="3"/>
-        <v>32.356626645424448</v>
+        <v>28.17104466652092</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="4"/>
-        <v>40.531415013368552</v>
+        <v>35.288360410721793</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="7"/>
-        <v>40.531415013368552</v>
-      </c>
-      <c r="J36" s="97">
-        <f>D36*A_d</f>
-        <v>212.1859028595569</v>
-      </c>
+        <v>35.288360410721793</v>
+      </c>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
@@ -5381,9 +5469,9 @@
         <f t="shared" si="0"/>
         <v>7.1767777777777759</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="40">
         <f t="shared" si="6"/>
-        <v>1964.3708165601302</v>
+        <v>66.061534624488715</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="1"/>
@@ -5395,20 +5483,17 @@
       </c>
       <c r="G37" s="31">
         <f t="shared" si="3"/>
-        <v>28.834017416185304</v>
+        <v>25.104112410972345</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="4"/>
-        <v>34.880817907697811</v>
+        <v>30.36871210495892</v>
       </c>
       <c r="I37" s="32">
         <f t="shared" si="7"/>
-        <v>34.880817907697811</v>
-      </c>
-      <c r="J37" s="97">
-        <f>D37*A_d</f>
-        <v>66.061534624488729</v>
-      </c>
+        <v>30.36871210495892</v>
+      </c>
+      <c r="J37" s="67"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="26">
@@ -5419,9 +5504,9 @@
         <f t="shared" si="0"/>
         <v>5.705277777777777</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="40">
         <f t="shared" si="6"/>
-        <v>507.52270164974135</v>
+        <v>17.067922331721398</v>
       </c>
       <c r="E38" s="18">
         <f t="shared" si="1"/>
@@ -5433,20 +5518,17 @@
       </c>
       <c r="G38" s="31">
         <f t="shared" si="3"/>
-        <v>25.021871237747643</v>
+        <v>21.78509706846102</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="4"/>
-        <v>28.997878953936123</v>
+        <v>25.246777180995764</v>
       </c>
       <c r="I38" s="32">
         <f t="shared" si="7"/>
-        <v>28.997878953936123</v>
-      </c>
-      <c r="J38" s="97">
-        <f>D38*A_d</f>
-        <v>17.067922331721402</v>
-      </c>
+        <v>25.246777180995764</v>
+      </c>
+      <c r="J38" s="67"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
@@ -5457,9 +5539,9 @@
         <f t="shared" si="0"/>
         <v>4.2337777777777745</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="40">
         <f t="shared" si="6"/>
-        <v>104.2400876918403</v>
+        <v>3.5055805677122556</v>
       </c>
       <c r="E39" s="18">
         <f t="shared" si="1"/>
@@ -5471,20 +5553,17 @@
       </c>
       <c r="G39" s="31">
         <f t="shared" si="3"/>
-        <v>20.809357273175646</v>
+        <v>18.117504635085954</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="4"/>
-        <v>22.807595441933696</v>
+        <v>19.857255114123923</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="7"/>
-        <v>22.807595441933696</v>
-      </c>
-      <c r="J39" s="97">
-        <f>D39*A_d</f>
-        <v>3.505580567712256</v>
-      </c>
+        <v>19.857255114123923</v>
+      </c>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="26">
@@ -5495,9 +5574,9 @@
         <f t="shared" si="0"/>
         <v>2.7622777777777721</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="40">
         <f t="shared" si="6"/>
-        <v>15.88785720563952</v>
+        <v>0.53430656780843078</v>
       </c>
       <c r="E40" s="18">
         <f t="shared" si="1"/>
@@ -5509,20 +5588,17 @@
       </c>
       <c r="G40" s="31">
         <f t="shared" si="3"/>
-        <v>15.982471848900621</v>
+        <v>13.915014481290541</v>
       </c>
       <c r="H40" s="31">
         <f t="shared" si="4"/>
-        <v>16.172740934054922</v>
+        <v>14.080670776530384</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="7"/>
-        <v>15.982471848900621</v>
-      </c>
-      <c r="J40" s="97">
-        <f>D40*A_d</f>
-        <v>0.53430656780843089</v>
-      </c>
+        <v>13.915014481290541</v>
+      </c>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="26">
@@ -5533,9 +5609,9 @@
         <f t="shared" si="0"/>
         <v>1.2907777777777731</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="40">
         <f t="shared" si="6"/>
-        <v>1.5799202962432022</v>
+        <v>5.3132513716005872E-2</v>
       </c>
       <c r="E41" s="18">
         <f t="shared" si="1"/>
@@ -5547,20 +5623,17 @@
       </c>
       <c r="G41" s="31">
         <f t="shared" si="3"/>
-        <v>9.9872734441134785</v>
+        <v>8.6953417417098091</v>
       </c>
       <c r="H41" s="31">
         <f t="shared" si="4"/>
-        <v>8.7659472860514693</v>
+        <v>7.6320036462961873</v>
       </c>
       <c r="I41" s="32">
         <f t="shared" si="7"/>
-        <v>9.9872734441134785</v>
-      </c>
-      <c r="J41" s="97">
-        <f>D41*A_d</f>
-        <v>5.3132513716005879E-2</v>
-      </c>
+        <v>8.6953417417098091</v>
+      </c>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="str">
@@ -5571,9 +5644,9 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="40">
         <f t="shared" si="6"/>
-        <v>7.3415736325828693E-2</v>
+        <v>2.4689616473553464E-3</v>
       </c>
       <c r="E42" s="18" t="str">
         <f t="shared" si="1"/>
@@ -5595,10 +5668,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J42" s="96">
-        <f>D42*A_d</f>
-        <v>2.4689616473553468E-3</v>
-      </c>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="str">
@@ -5609,7 +5679,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D43" s="41" t="str">
+      <c r="D43" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5633,10 +5703,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J43" s="96" t="e">
-        <f>D43*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J43" s="66"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="str">
@@ -5647,7 +5714,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D44" s="41" t="str">
+      <c r="D44" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5671,10 +5738,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J44" s="96" t="e">
-        <f>D44*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="26" t="str">
@@ -5685,7 +5749,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D45" s="41" t="str">
+      <c r="D45" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5709,10 +5773,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J45" s="96" t="e">
-        <f>D45*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J45" s="66"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="26" t="str">
@@ -5723,7 +5784,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D46" s="41" t="str">
+      <c r="D46" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5747,10 +5808,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J46" s="96" t="e">
-        <f>D46*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J46" s="66"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="26" t="str">
@@ -5761,7 +5819,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D47" s="41" t="str">
+      <c r="D47" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5785,10 +5843,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J47" s="96" t="e">
-        <f>D47*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J47" s="66"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="str">
@@ -5799,7 +5854,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D48" s="41" t="str">
+      <c r="D48" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5823,10 +5878,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J48" s="96" t="e">
-        <f>D48*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J48" s="66"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="26" t="str">
@@ -5837,7 +5889,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D49" s="41" t="str">
+      <c r="D49" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5861,10 +5913,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J49" s="96" t="e">
-        <f>D49*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J49" s="66"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="26" t="str">
@@ -5875,7 +5924,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D50" s="41" t="str">
+      <c r="D50" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5899,10 +5948,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J50" s="96" t="e">
-        <f>D50*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="26" t="str">
@@ -5913,7 +5959,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D51" s="41" t="str">
+      <c r="D51" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5937,10 +5983,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J51" s="96" t="e">
-        <f>D51*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="26" t="str">
@@ -5951,7 +5994,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D52" s="41" t="str">
+      <c r="D52" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5975,10 +6018,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J52" s="96" t="e">
-        <f>D52*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J52" s="66"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="str">
@@ -5989,7 +6029,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D53" s="41" t="str">
+      <c r="D53" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6013,10 +6053,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J53" s="96" t="e">
-        <f>D53*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J53" s="66"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="str">
@@ -6027,7 +6064,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D54" s="41" t="str">
+      <c r="D54" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6051,10 +6088,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J54" s="96" t="e">
-        <f>D54*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J54" s="66"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="str">
@@ -6065,7 +6099,7 @@
         <f t="shared" ref="C55:C86" si="8">IFERROR(Vi-(a*B55),"-")</f>
         <v>-</v>
       </c>
-      <c r="D55" s="41" t="str">
+      <c r="D55" s="40" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6078,21 +6112,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G55" s="31" t="str">
-        <f t="shared" ref="G55:G86" si="10">IFERROR(0.193*(E55^0.618)*(F55^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G55:G86" si="10">IFERROR(0.193*(E55^0.618)*(F55^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H55" s="31" t="str">
-        <f t="shared" ref="H55:H86" si="11">IFERROR(0.027*(E55^0.805)*(F55^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H55:H86" si="11">IFERROR(0.027*(E55^0.805)*(F55^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I55" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J55" s="96" t="e">
-        <f>D55*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J55" s="66"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="str">
@@ -6103,7 +6134,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D56" s="41" t="str">
+      <c r="D56" s="40" t="str">
         <f t="shared" ref="D56:D87" si="13">IFERROR(D55*(1-(B55/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -6127,10 +6158,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J56" s="96" t="e">
-        <f>D56*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J56" s="66"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="str">
@@ -6141,7 +6169,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D57" s="41" t="str">
+      <c r="D57" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6165,10 +6193,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J57" s="96" t="e">
-        <f>D57*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="str">
@@ -6179,7 +6204,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D58" s="41" t="str">
+      <c r="D58" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6203,10 +6228,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J58" s="96" t="e">
-        <f>D58*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="str">
@@ -6217,7 +6239,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D59" s="41" t="str">
+      <c r="D59" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6241,10 +6263,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J59" s="96" t="e">
-        <f>D59*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J59" s="66"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="str">
@@ -6255,7 +6274,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D60" s="41" t="str">
+      <c r="D60" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6279,10 +6298,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J60" s="96" t="e">
-        <f>D60*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J60" s="66"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="str">
@@ -6293,7 +6309,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D61" s="41" t="str">
+      <c r="D61" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6317,10 +6333,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J61" s="96" t="e">
-        <f>D61*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J61" s="66"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="str">
@@ -6331,7 +6344,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D62" s="41" t="str">
+      <c r="D62" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6355,10 +6368,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J62" s="96" t="e">
-        <f>D62*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J62" s="66"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="str">
@@ -6369,7 +6379,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D63" s="41" t="str">
+      <c r="D63" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6393,10 +6403,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J63" s="96" t="e">
-        <f>D63*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J63" s="66"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="str">
@@ -6407,7 +6414,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D64" s="41" t="str">
+      <c r="D64" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6431,10 +6438,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J64" s="96" t="e">
-        <f>D64*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J64" s="66"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="str">
@@ -6445,7 +6449,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D65" s="41" t="str">
+      <c r="D65" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6469,10 +6473,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J65" s="96" t="e">
-        <f>D65*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J65" s="66"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="str">
@@ -6483,7 +6484,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D66" s="41" t="str">
+      <c r="D66" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6507,10 +6508,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J66" s="96" t="e">
-        <f>D66*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J66" s="66"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="str">
@@ -6521,7 +6519,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D67" s="41" t="str">
+      <c r="D67" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6545,10 +6543,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J67" s="96" t="e">
-        <f>D67*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J67" s="66"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="str">
@@ -6559,7 +6554,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D68" s="41" t="str">
+      <c r="D68" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6583,10 +6578,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J68" s="96" t="e">
-        <f>D68*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J68" s="66"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="str">
@@ -6597,7 +6589,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D69" s="41" t="str">
+      <c r="D69" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6621,10 +6613,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J69" s="96" t="e">
-        <f>D69*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J69" s="66"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="str">
@@ -6635,7 +6624,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D70" s="41" t="str">
+      <c r="D70" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6659,10 +6648,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J70" s="96" t="e">
-        <f>D70*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J70" s="66"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="str">
@@ -6673,7 +6659,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D71" s="41" t="str">
+      <c r="D71" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6697,10 +6683,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J71" s="96" t="e">
-        <f>D71*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J71" s="66"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="str">
@@ -6711,7 +6694,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D72" s="41" t="str">
+      <c r="D72" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6735,10 +6718,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J72" s="96" t="e">
-        <f>D72*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J72" s="66"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="str">
@@ -6749,7 +6729,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D73" s="41" t="str">
+      <c r="D73" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6773,10 +6753,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J73" s="96" t="e">
-        <f>D73*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J73" s="66"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="str">
@@ -6787,7 +6764,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D74" s="41" t="str">
+      <c r="D74" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6811,10 +6788,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J74" s="96" t="e">
-        <f>D74*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J74" s="66"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="str">
@@ -6825,7 +6799,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D75" s="41" t="str">
+      <c r="D75" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6849,10 +6823,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J75" s="96" t="e">
-        <f>D75*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J75" s="66"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="26" t="str">
@@ -6863,7 +6834,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D76" s="41" t="str">
+      <c r="D76" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6887,10 +6858,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J76" s="96" t="e">
-        <f>D76*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J76" s="66"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="26" t="str">
@@ -6901,7 +6869,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D77" s="41" t="str">
+      <c r="D77" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6925,10 +6893,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J77" s="96" t="e">
-        <f>D77*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J77" s="66"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="26" t="str">
@@ -6939,7 +6904,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D78" s="41" t="str">
+      <c r="D78" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6963,10 +6928,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J78" s="96" t="e">
-        <f>D78*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J78" s="66"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="26" t="str">
@@ -6977,7 +6939,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D79" s="41" t="str">
+      <c r="D79" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7001,10 +6963,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J79" s="96" t="e">
-        <f>D79*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J79" s="66"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="26" t="str">
@@ -7015,7 +6974,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D80" s="41" t="str">
+      <c r="D80" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7039,10 +6998,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J80" s="96" t="e">
-        <f>D80*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J80" s="66"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="26" t="str">
@@ -7053,7 +7009,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D81" s="41" t="str">
+      <c r="D81" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7077,10 +7033,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J81" s="96" t="e">
-        <f>D81*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J81" s="66"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="26" t="str">
@@ -7091,7 +7044,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D82" s="41" t="str">
+      <c r="D82" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7115,10 +7068,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J82" s="96" t="e">
-        <f>D82*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J82" s="66"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="26" t="str">
@@ -7129,7 +7079,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D83" s="41" t="str">
+      <c r="D83" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7153,10 +7103,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J83" s="96" t="e">
-        <f>D83*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J83" s="66"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="26" t="str">
@@ -7167,7 +7114,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D84" s="41" t="str">
+      <c r="D84" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7191,10 +7138,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J84" s="96" t="e">
-        <f>D84*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J84" s="66"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="26" t="str">
@@ -7205,7 +7149,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D85" s="41" t="str">
+      <c r="D85" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7229,10 +7173,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J85" s="96" t="e">
-        <f>D85*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J85" s="66"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="str">
@@ -7243,7 +7184,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D86" s="41" t="str">
+      <c r="D86" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7267,10 +7208,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J86" s="96" t="e">
-        <f>D86*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J86" s="66"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="26" t="str">
@@ -7281,7 +7219,7 @@
         <f t="shared" ref="C87:C118" si="14">IFERROR(Vi-(a*B87),"-")</f>
         <v>-</v>
       </c>
-      <c r="D87" s="41" t="str">
+      <c r="D87" s="40" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7294,21 +7232,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G87" s="31" t="str">
-        <f t="shared" ref="G87:G118" si="17">IFERROR(0.193*(E87^0.618)*(F87^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G87:G118" si="17">IFERROR(0.193*(E87^0.618)*(F87^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H87" s="31" t="str">
-        <f t="shared" ref="H87:H118" si="18">IFERROR(0.027*(E87^0.805)*(F87^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H87:H118" si="18">IFERROR(0.027*(E87^0.805)*(F87^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I87" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J87" s="96" t="e">
-        <f>D87*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J87" s="66"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="26" t="str">
@@ -7319,7 +7254,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D88" s="41" t="str">
+      <c r="D88" s="40" t="str">
         <f t="shared" ref="D88:D119" si="20">IFERROR(D87*(1-(B87/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -7343,10 +7278,7 @@
         <f t="shared" ref="I88:I151" si="21">IFERROR(IF(E88&lt;40000,G88,H88),"-")</f>
         <v>-</v>
       </c>
-      <c r="J88" s="96" t="e">
-        <f>D88*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J88" s="66"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="26" t="str">
@@ -7357,7 +7289,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D89" s="41" t="str">
+      <c r="D89" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7381,10 +7313,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J89" s="96" t="e">
-        <f>D89*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J89" s="66"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="26" t="str">
@@ -7395,7 +7324,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D90" s="41" t="str">
+      <c r="D90" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7419,10 +7348,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J90" s="96" t="e">
-        <f>D90*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J90" s="66"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="26" t="str">
@@ -7433,7 +7359,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D91" s="41" t="str">
+      <c r="D91" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7457,10 +7383,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J91" s="96" t="e">
-        <f>D91*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J91" s="66"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="26" t="str">
@@ -7471,7 +7394,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D92" s="41" t="str">
+      <c r="D92" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7495,10 +7418,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J92" s="96" t="e">
-        <f>D92*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J92" s="66"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="26" t="str">
@@ -7509,7 +7429,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D93" s="41" t="str">
+      <c r="D93" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7533,10 +7453,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J93" s="96" t="e">
-        <f>D93*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J93" s="66"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="26" t="str">
@@ -7547,7 +7464,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D94" s="41" t="str">
+      <c r="D94" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7571,10 +7488,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J94" s="96" t="e">
-        <f>D94*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J94" s="66"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="str">
@@ -7585,7 +7499,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D95" s="41" t="str">
+      <c r="D95" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7609,10 +7523,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J95" s="96" t="e">
-        <f>D95*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J95" s="66"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="26" t="str">
@@ -7623,7 +7534,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D96" s="41" t="str">
+      <c r="D96" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7647,10 +7558,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J96" s="96" t="e">
-        <f>D96*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J96" s="66"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="26" t="str">
@@ -7661,7 +7569,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D97" s="41" t="str">
+      <c r="D97" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7685,10 +7593,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J97" s="96" t="e">
-        <f>D97*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J97" s="66"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="26" t="str">
@@ -7699,7 +7604,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D98" s="41" t="str">
+      <c r="D98" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7723,10 +7628,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J98" s="96" t="e">
-        <f>D98*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J98" s="66"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="26" t="str">
@@ -7737,7 +7639,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D99" s="41" t="str">
+      <c r="D99" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7761,10 +7663,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J99" s="96" t="e">
-        <f>D99*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J99" s="66"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="str">
@@ -7775,7 +7674,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D100" s="41" t="str">
+      <c r="D100" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7799,10 +7698,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J100" s="96" t="e">
-        <f>D100*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J100" s="66"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="str">
@@ -7813,7 +7709,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D101" s="41" t="str">
+      <c r="D101" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7837,10 +7733,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J101" s="96" t="e">
-        <f>D101*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J101" s="66"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="str">
@@ -7851,7 +7744,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D102" s="41" t="str">
+      <c r="D102" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7875,10 +7768,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J102" s="96" t="e">
-        <f>D102*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J102" s="66"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="str">
@@ -7889,7 +7779,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D103" s="41" t="str">
+      <c r="D103" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7913,10 +7803,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J103" s="96" t="e">
-        <f>D103*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J103" s="66"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="str">
@@ -7927,7 +7814,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D104" s="41" t="str">
+      <c r="D104" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7951,10 +7838,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J104" s="96" t="e">
-        <f>D104*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J104" s="66"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="str">
@@ -7965,7 +7849,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D105" s="41" t="str">
+      <c r="D105" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7989,10 +7873,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J105" s="96" t="e">
-        <f>D105*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J105" s="66"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="str">
@@ -8003,7 +7884,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D106" s="41" t="str">
+      <c r="D106" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8027,10 +7908,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J106" s="96" t="e">
-        <f>D106*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J106" s="66"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="str">
@@ -8041,7 +7919,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D107" s="41" t="str">
+      <c r="D107" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8065,10 +7943,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J107" s="96" t="e">
-        <f>D107*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J107" s="66"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="str">
@@ -8079,7 +7954,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D108" s="41" t="str">
+      <c r="D108" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8103,10 +7978,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J108" s="96" t="e">
-        <f>D108*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J108" s="66"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="26" t="str">
@@ -8117,7 +7989,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D109" s="41" t="str">
+      <c r="D109" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8141,10 +8013,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J109" s="96" t="e">
-        <f>D109*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J109" s="66"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="str">
@@ -8155,7 +8024,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D110" s="41" t="str">
+      <c r="D110" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8179,10 +8048,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J110" s="96" t="e">
-        <f>D110*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J110" s="66"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="26" t="str">
@@ -8193,7 +8059,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D111" s="41" t="str">
+      <c r="D111" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8217,10 +8083,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J111" s="96" t="e">
-        <f>D111*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J111" s="66"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="26" t="str">
@@ -8231,7 +8094,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D112" s="41" t="str">
+      <c r="D112" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8255,10 +8118,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J112" s="96" t="e">
-        <f>D112*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J112" s="66"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="str">
@@ -8269,7 +8129,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D113" s="41" t="str">
+      <c r="D113" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8293,10 +8153,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J113" s="96" t="e">
-        <f>D113*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J113" s="66"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="26" t="str">
@@ -8307,7 +8164,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D114" s="41" t="str">
+      <c r="D114" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8331,10 +8188,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J114" s="96" t="e">
-        <f>D114*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J114" s="66"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="26" t="str">
@@ -8345,7 +8199,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D115" s="41" t="str">
+      <c r="D115" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8369,10 +8223,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J115" s="96" t="e">
-        <f>D115*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J115" s="66"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="26" t="str">
@@ -8383,7 +8234,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D116" s="41" t="str">
+      <c r="D116" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8407,10 +8258,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J116" s="96" t="e">
-        <f>D116*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J116" s="66"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="26" t="str">
@@ -8421,7 +8269,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D117" s="41" t="str">
+      <c r="D117" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8445,10 +8293,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J117" s="96" t="e">
-        <f>D117*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J117" s="66"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="26" t="str">
@@ -8459,7 +8304,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D118" s="41" t="str">
+      <c r="D118" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8483,10 +8328,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J118" s="96" t="e">
-        <f>D118*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J118" s="66"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="26" t="str">
@@ -8497,7 +8339,7 @@
         <f t="shared" ref="C119:C150" si="22">IFERROR(Vi-(a*B119),"-")</f>
         <v>-</v>
       </c>
-      <c r="D119" s="41" t="str">
+      <c r="D119" s="40" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8510,21 +8352,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G119" s="31" t="str">
-        <f t="shared" ref="G119:G150" si="24">IFERROR(0.193*(E119^0.618)*(F119^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G119:G150" si="24">IFERROR(0.193*(E119^0.618)*(F119^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H119" s="31" t="str">
-        <f t="shared" ref="H119:H150" si="25">IFERROR(0.027*(E119^0.805)*(F119^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H119:H150" si="25">IFERROR(0.027*(E119^0.805)*(F119^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I119" s="32" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J119" s="96" t="e">
-        <f>D119*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J119" s="66"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="26" t="str">
@@ -8535,7 +8374,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D120" s="41" t="str">
+      <c r="D120" s="40" t="str">
         <f t="shared" ref="D120:D151" si="27">IFERROR(D119*(1-(B119/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -8559,10 +8398,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J120" s="96" t="e">
-        <f>D120*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J120" s="66"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="26" t="str">
@@ -8573,7 +8409,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D121" s="41" t="str">
+      <c r="D121" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8597,10 +8433,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J121" s="96" t="e">
-        <f>D121*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J121" s="66"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="26" t="str">
@@ -8611,7 +8444,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D122" s="41" t="str">
+      <c r="D122" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8635,10 +8468,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J122" s="96" t="e">
-        <f>D122*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J122" s="66"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="26" t="str">
@@ -8649,7 +8479,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D123" s="41" t="str">
+      <c r="D123" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8673,10 +8503,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J123" s="96" t="e">
-        <f>D123*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J123" s="66"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="26" t="str">
@@ -8687,7 +8514,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D124" s="41" t="str">
+      <c r="D124" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8711,10 +8538,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J124" s="96" t="e">
-        <f>D124*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J124" s="66"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="26" t="str">
@@ -8725,7 +8549,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D125" s="41" t="str">
+      <c r="D125" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8749,10 +8573,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J125" s="96" t="e">
-        <f>D125*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J125" s="66"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="26" t="str">
@@ -8763,7 +8584,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D126" s="41" t="str">
+      <c r="D126" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8787,10 +8608,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J126" s="96" t="e">
-        <f>D126*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J126" s="66"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="26" t="str">
@@ -8801,7 +8619,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D127" s="41" t="str">
+      <c r="D127" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8825,10 +8643,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J127" s="96" t="e">
-        <f>D127*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J127" s="66"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="26" t="str">
@@ -8839,7 +8654,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D128" s="41" t="str">
+      <c r="D128" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8863,10 +8678,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J128" s="96" t="e">
-        <f>D128*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J128" s="66"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="26" t="str">
@@ -8877,7 +8689,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D129" s="41" t="str">
+      <c r="D129" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8901,10 +8713,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J129" s="96" t="e">
-        <f>D129*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J129" s="66"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="26" t="str">
@@ -8915,7 +8724,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D130" s="41" t="str">
+      <c r="D130" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8939,10 +8748,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J130" s="96" t="e">
-        <f>D130*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J130" s="66"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="26" t="str">
@@ -8953,7 +8759,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D131" s="41" t="str">
+      <c r="D131" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8977,10 +8783,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J131" s="96" t="e">
-        <f>D131*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J131" s="66"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="26" t="str">
@@ -8991,7 +8794,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D132" s="41" t="str">
+      <c r="D132" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9015,10 +8818,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J132" s="96" t="e">
-        <f>D132*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J132" s="66"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="26" t="str">
@@ -9029,7 +8829,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D133" s="41" t="str">
+      <c r="D133" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9053,10 +8853,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J133" s="96" t="e">
-        <f>D133*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J133" s="66"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="26" t="str">
@@ -9067,7 +8864,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D134" s="41" t="str">
+      <c r="D134" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9091,10 +8888,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J134" s="96" t="e">
-        <f>D134*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J134" s="66"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="26" t="str">
@@ -9105,7 +8899,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D135" s="41" t="str">
+      <c r="D135" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9129,10 +8923,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J135" s="96" t="e">
-        <f>D135*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J135" s="66"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="str">
@@ -9143,7 +8934,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D136" s="41" t="str">
+      <c r="D136" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9167,10 +8958,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J136" s="96" t="e">
-        <f>D136*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J136" s="66"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="26" t="str">
@@ -9181,7 +8969,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D137" s="41" t="str">
+      <c r="D137" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9205,10 +8993,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J137" s="96" t="e">
-        <f>D137*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J137" s="66"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="26" t="str">
@@ -9219,7 +9004,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D138" s="41" t="str">
+      <c r="D138" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9243,10 +9028,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J138" s="96" t="e">
-        <f>D138*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J138" s="66"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="26" t="str">
@@ -9257,7 +9039,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D139" s="41" t="str">
+      <c r="D139" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9281,10 +9063,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J139" s="96" t="e">
-        <f>D139*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J139" s="66"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="str">
@@ -9295,7 +9074,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D140" s="41" t="str">
+      <c r="D140" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9319,10 +9098,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J140" s="96" t="e">
-        <f>D140*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J140" s="66"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="26" t="str">
@@ -9333,7 +9109,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D141" s="41" t="str">
+      <c r="D141" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9357,10 +9133,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J141" s="96" t="e">
-        <f>D141*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J141" s="66"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="26" t="str">
@@ -9371,7 +9144,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D142" s="41" t="str">
+      <c r="D142" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9395,10 +9168,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J142" s="96" t="e">
-        <f>D142*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J142" s="66"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="26" t="str">
@@ -9409,7 +9179,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D143" s="41" t="str">
+      <c r="D143" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9433,10 +9203,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J143" s="96" t="e">
-        <f>D143*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J143" s="66"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="26" t="str">
@@ -9447,7 +9214,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D144" s="41" t="str">
+      <c r="D144" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9471,10 +9238,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J144" s="96" t="e">
-        <f>D144*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J144" s="66"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="26" t="str">
@@ -9485,7 +9249,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D145" s="41" t="str">
+      <c r="D145" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9509,10 +9273,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J145" s="96" t="e">
-        <f>D145*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J145" s="66"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="str">
@@ -9523,7 +9284,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D146" s="41" t="str">
+      <c r="D146" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9547,10 +9308,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J146" s="96" t="e">
-        <f>D146*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J146" s="66"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="26" t="str">
@@ -9561,7 +9319,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D147" s="41" t="str">
+      <c r="D147" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9585,10 +9343,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J147" s="96" t="e">
-        <f>D147*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J147" s="66"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="26" t="str">
@@ -9599,7 +9354,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D148" s="41" t="str">
+      <c r="D148" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9623,10 +9378,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J148" s="96" t="e">
-        <f>D148*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J148" s="66"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="26" t="str">
@@ -9637,7 +9389,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D149" s="41" t="str">
+      <c r="D149" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9661,10 +9413,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J149" s="96" t="e">
-        <f>D149*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J149" s="66"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="26" t="str">
@@ -9675,7 +9424,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D150" s="41" t="str">
+      <c r="D150" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9699,10 +9448,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J150" s="96" t="e">
-        <f>D150*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J150" s="66"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="26" t="str">
@@ -9713,7 +9459,7 @@
         <f t="shared" ref="C151:C182" si="28">IFERROR(Vi-(a*B151),"-")</f>
         <v>-</v>
       </c>
-      <c r="D151" s="41" t="str">
+      <c r="D151" s="40" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9726,21 +9472,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G151" s="31" t="str">
-        <f t="shared" ref="G151:G182" si="31">IFERROR(0.193*(E151^0.618)*(F151^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G151:G182" si="31">IFERROR(0.193*(E151^0.618)*(F151^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H151" s="31" t="str">
-        <f t="shared" ref="H151:H182" si="32">IFERROR(0.027*(E151^0.805)*(F151^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H151:H182" si="32">IFERROR(0.027*(E151^0.805)*(F151^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I151" s="32" t="str">
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J151" s="96" t="e">
-        <f>D151*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J151" s="66"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="26" t="str">
@@ -9751,7 +9494,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D152" s="41" t="str">
+      <c r="D152" s="40" t="str">
         <f t="shared" ref="D152:D183" si="34">IFERROR(D151*(1-(B151/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -9775,10 +9518,7 @@
         <f t="shared" ref="I152:I215" si="35">IFERROR(IF(E152&lt;40000,G152,H152),"-")</f>
         <v>-</v>
       </c>
-      <c r="J152" s="96" t="e">
-        <f>D152*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J152" s="66"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="26" t="str">
@@ -9789,7 +9529,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D153" s="41" t="str">
+      <c r="D153" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9813,10 +9553,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J153" s="96" t="e">
-        <f>D153*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J153" s="66"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="26" t="str">
@@ -9827,7 +9564,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D154" s="41" t="str">
+      <c r="D154" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9851,10 +9588,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J154" s="96" t="e">
-        <f>D154*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J154" s="66"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="26" t="str">
@@ -9865,7 +9599,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D155" s="41" t="str">
+      <c r="D155" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9889,10 +9623,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J155" s="96" t="e">
-        <f>D155*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J155" s="66"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="26" t="str">
@@ -9903,7 +9634,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D156" s="41" t="str">
+      <c r="D156" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9927,10 +9658,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J156" s="96" t="e">
-        <f>D156*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J156" s="66"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="26" t="str">
@@ -9941,7 +9669,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D157" s="41" t="str">
+      <c r="D157" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9965,10 +9693,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J157" s="96" t="e">
-        <f>D157*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J157" s="66"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="26" t="str">
@@ -9979,7 +9704,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D158" s="41" t="str">
+      <c r="D158" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10003,10 +9728,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J158" s="96" t="e">
-        <f>D158*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J158" s="66"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="26" t="str">
@@ -10017,7 +9739,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D159" s="41" t="str">
+      <c r="D159" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10041,10 +9763,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J159" s="96" t="e">
-        <f>D159*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J159" s="66"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="26" t="str">
@@ -10055,7 +9774,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D160" s="41" t="str">
+      <c r="D160" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10079,10 +9798,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J160" s="96" t="e">
-        <f>D160*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J160" s="66"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="26" t="str">
@@ -10093,7 +9809,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D161" s="41" t="str">
+      <c r="D161" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10117,10 +9833,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J161" s="96" t="e">
-        <f>D161*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J161" s="66"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="26" t="str">
@@ -10131,7 +9844,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D162" s="41" t="str">
+      <c r="D162" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10155,10 +9868,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J162" s="96" t="e">
-        <f>D162*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J162" s="66"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="26" t="str">
@@ -10169,7 +9879,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D163" s="41" t="str">
+      <c r="D163" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10193,10 +9903,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J163" s="96" t="e">
-        <f>D163*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J163" s="66"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="26" t="str">
@@ -10207,7 +9914,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D164" s="41" t="str">
+      <c r="D164" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10231,10 +9938,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J164" s="96" t="e">
-        <f>D164*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J164" s="66"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="26" t="str">
@@ -10245,7 +9949,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D165" s="41" t="str">
+      <c r="D165" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10269,10 +9973,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J165" s="96" t="e">
-        <f>D165*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J165" s="66"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="26" t="str">
@@ -10283,7 +9984,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D166" s="41" t="str">
+      <c r="D166" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10307,10 +10008,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J166" s="96" t="e">
-        <f>D166*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J166" s="66"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="str">
@@ -10321,7 +10019,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D167" s="41" t="str">
+      <c r="D167" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10345,10 +10043,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J167" s="96" t="e">
-        <f>D167*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J167" s="66"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="26" t="str">
@@ -10359,7 +10054,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D168" s="41" t="str">
+      <c r="D168" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10383,10 +10078,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J168" s="96" t="e">
-        <f>D168*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J168" s="66"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="26" t="str">
@@ -10397,7 +10089,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D169" s="41" t="str">
+      <c r="D169" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10421,10 +10113,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J169" s="96" t="e">
-        <f>D169*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J169" s="66"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="26" t="str">
@@ -10435,7 +10124,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D170" s="41" t="str">
+      <c r="D170" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10459,10 +10148,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J170" s="96" t="e">
-        <f>D170*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J170" s="66"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="26" t="str">
@@ -10473,7 +10159,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D171" s="41" t="str">
+      <c r="D171" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10497,10 +10183,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J171" s="96" t="e">
-        <f>D171*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J171" s="66"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="26" t="str">
@@ -10511,7 +10194,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D172" s="41" t="str">
+      <c r="D172" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10535,10 +10218,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J172" s="96" t="e">
-        <f>D172*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J172" s="66"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="26" t="str">
@@ -10549,7 +10229,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D173" s="41" t="str">
+      <c r="D173" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10573,10 +10253,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J173" s="96" t="e">
-        <f>D173*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J173" s="66"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="26" t="str">
@@ -10587,7 +10264,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D174" s="41" t="str">
+      <c r="D174" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10611,10 +10288,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J174" s="96" t="e">
-        <f>D174*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J174" s="66"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="26" t="str">
@@ -10625,7 +10299,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D175" s="41" t="str">
+      <c r="D175" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10649,10 +10323,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J175" s="96" t="e">
-        <f>D175*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J175" s="66"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="26" t="str">
@@ -10663,7 +10334,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D176" s="41" t="str">
+      <c r="D176" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10687,10 +10358,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J176" s="96" t="e">
-        <f>D176*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J176" s="66"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="26" t="str">
@@ -10701,7 +10369,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D177" s="41" t="str">
+      <c r="D177" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10725,10 +10393,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J177" s="96" t="e">
-        <f>D177*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J177" s="66"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="26" t="str">
@@ -10739,7 +10404,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D178" s="41" t="str">
+      <c r="D178" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10763,10 +10428,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J178" s="96" t="e">
-        <f>D178*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J178" s="66"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="26" t="str">
@@ -10777,7 +10439,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D179" s="41" t="str">
+      <c r="D179" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10801,10 +10463,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J179" s="96" t="e">
-        <f>D179*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J179" s="66"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="26" t="str">
@@ -10815,7 +10474,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D180" s="41" t="str">
+      <c r="D180" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10839,10 +10498,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J180" s="96" t="e">
-        <f>D180*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J180" s="66"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="26" t="str">
@@ -10853,7 +10509,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D181" s="41" t="str">
+      <c r="D181" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10877,10 +10533,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J181" s="96" t="e">
-        <f>D181*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J181" s="66"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="26" t="str">
@@ -10891,7 +10544,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D182" s="41" t="str">
+      <c r="D182" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10915,10 +10568,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J182" s="96" t="e">
-        <f>D182*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J182" s="66"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="26" t="str">
@@ -10929,7 +10579,7 @@
         <f t="shared" ref="C183:C214" si="36">IFERROR(Vi-(a*B183),"-")</f>
         <v>-</v>
       </c>
-      <c r="D183" s="41" t="str">
+      <c r="D183" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10942,21 +10592,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G183" s="31" t="str">
-        <f t="shared" ref="G183:G214" si="38">IFERROR(0.193*(E183^0.618)*(F183^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G183:G214" si="38">IFERROR(0.193*(E183^0.618)*(F183^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H183" s="31" t="str">
-        <f t="shared" ref="H183:H214" si="39">IFERROR(0.027*(E183^0.805)*(F183^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H183:H214" si="39">IFERROR(0.027*(E183^0.805)*(F183^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I183" s="32" t="str">
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J183" s="96" t="e">
-        <f>D183*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J183" s="66"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="26" t="str">
@@ -10967,7 +10614,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D184" s="41" t="str">
+      <c r="D184" s="40" t="str">
         <f t="shared" ref="D184:D220" si="41">IFERROR(D183*(1-(B183/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -10991,10 +10638,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J184" s="96" t="e">
-        <f>D184*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J184" s="66"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="26" t="str">
@@ -11005,7 +10649,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D185" s="41" t="str">
+      <c r="D185" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11029,10 +10673,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J185" s="96" t="e">
-        <f>D185*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J185" s="66"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="26" t="str">
@@ -11043,7 +10684,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D186" s="41" t="str">
+      <c r="D186" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11067,10 +10708,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J186" s="96" t="e">
-        <f>D186*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J186" s="66"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="26" t="str">
@@ -11081,7 +10719,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D187" s="41" t="str">
+      <c r="D187" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11105,10 +10743,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J187" s="96" t="e">
-        <f>D187*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J187" s="66"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="26" t="str">
@@ -11119,7 +10754,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D188" s="41" t="str">
+      <c r="D188" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11143,10 +10778,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J188" s="96" t="e">
-        <f>D188*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J188" s="66"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="26" t="str">
@@ -11157,7 +10789,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D189" s="41" t="str">
+      <c r="D189" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11181,10 +10813,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J189" s="96" t="e">
-        <f>D189*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J189" s="66"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="str">
@@ -11195,7 +10824,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D190" s="41" t="str">
+      <c r="D190" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11219,10 +10848,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J190" s="96" t="e">
-        <f>D190*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J190" s="66"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" s="26" t="str">
@@ -11233,7 +10859,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D191" s="41" t="str">
+      <c r="D191" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11257,10 +10883,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J191" s="96" t="e">
-        <f>D191*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J191" s="66"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" s="26" t="str">
@@ -11271,7 +10894,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D192" s="41" t="str">
+      <c r="D192" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11295,10 +10918,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J192" s="96" t="e">
-        <f>D192*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J192" s="66"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="26" t="str">
@@ -11309,7 +10929,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D193" s="41" t="str">
+      <c r="D193" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11333,10 +10953,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J193" s="96" t="e">
-        <f>D193*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J193" s="66"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="str">
@@ -11347,7 +10964,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D194" s="41" t="str">
+      <c r="D194" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11371,10 +10988,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J194" s="96" t="e">
-        <f>D194*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J194" s="66"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="26" t="str">
@@ -11385,7 +10999,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D195" s="41" t="str">
+      <c r="D195" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11409,10 +11023,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J195" s="96" t="e">
-        <f>D195*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J195" s="66"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="26" t="str">
@@ -11423,7 +11034,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D196" s="41" t="str">
+      <c r="D196" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11447,10 +11058,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J196" s="96" t="e">
-        <f>D196*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J196" s="66"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="26" t="str">
@@ -11461,7 +11069,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D197" s="41" t="str">
+      <c r="D197" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11485,10 +11093,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J197" s="96" t="e">
-        <f>D197*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J197" s="66"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="26" t="str">
@@ -11499,7 +11104,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D198" s="41" t="str">
+      <c r="D198" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11523,10 +11128,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J198" s="96" t="e">
-        <f>D198*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J198" s="66"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="26" t="str">
@@ -11537,7 +11139,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D199" s="41" t="str">
+      <c r="D199" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11561,10 +11163,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J199" s="96" t="e">
-        <f>D199*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J199" s="66"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="26" t="str">
@@ -11575,7 +11174,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D200" s="41" t="str">
+      <c r="D200" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11599,10 +11198,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J200" s="96" t="e">
-        <f>D200*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J200" s="66"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="26" t="str">
@@ -11613,7 +11209,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D201" s="41" t="str">
+      <c r="D201" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11637,10 +11233,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J201" s="96" t="e">
-        <f>D201*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J201" s="66"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="26" t="str">
@@ -11651,7 +11244,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D202" s="41" t="str">
+      <c r="D202" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11675,10 +11268,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J202" s="96" t="e">
-        <f>D202*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J202" s="66"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="26" t="str">
@@ -11689,7 +11279,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D203" s="41" t="str">
+      <c r="D203" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11713,10 +11303,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J203" s="96" t="e">
-        <f>D203*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J203" s="66"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="26" t="str">
@@ -11727,7 +11314,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D204" s="41" t="str">
+      <c r="D204" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11751,10 +11338,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J204" s="96" t="e">
-        <f>D204*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J204" s="66"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="26" t="str">
@@ -11765,7 +11349,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D205" s="41" t="str">
+      <c r="D205" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11789,10 +11373,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J205" s="96" t="e">
-        <f>D205*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J205" s="66"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="26" t="str">
@@ -11803,7 +11384,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D206" s="41" t="str">
+      <c r="D206" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11827,10 +11408,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J206" s="96" t="e">
-        <f>D206*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J206" s="66"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="26" t="str">
@@ -11841,7 +11419,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D207" s="41" t="str">
+      <c r="D207" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11865,10 +11443,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J207" s="96" t="e">
-        <f>D207*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J207" s="66"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="26" t="str">
@@ -11879,7 +11454,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D208" s="41" t="str">
+      <c r="D208" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11903,10 +11478,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J208" s="96" t="e">
-        <f>D208*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J208" s="66"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" s="26" t="str">
@@ -11917,7 +11489,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D209" s="41" t="str">
+      <c r="D209" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11941,10 +11513,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J209" s="96" t="e">
-        <f>D209*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J209" s="66"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="26" t="str">
@@ -11955,7 +11524,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D210" s="41" t="str">
+      <c r="D210" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11979,10 +11548,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J210" s="96" t="e">
-        <f>D210*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J210" s="66"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="26" t="str">
@@ -11993,7 +11559,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D211" s="41" t="str">
+      <c r="D211" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12017,10 +11583,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J211" s="96" t="e">
-        <f>D211*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J211" s="66"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="26" t="str">
@@ -12031,7 +11594,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D212" s="41" t="str">
+      <c r="D212" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12055,10 +11618,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J212" s="96" t="e">
-        <f>D212*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J212" s="66"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="26" t="str">
@@ -12069,7 +11629,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D213" s="41" t="str">
+      <c r="D213" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12093,10 +11653,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J213" s="96" t="e">
-        <f>D213*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J213" s="66"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="26" t="str">
@@ -12107,7 +11664,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D214" s="41" t="str">
+      <c r="D214" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12131,10 +11688,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J214" s="96" t="e">
-        <f>D214*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J214" s="66"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="26" t="str">
@@ -12145,7 +11699,7 @@
         <f t="shared" ref="C215:C220" si="42">IFERROR(Vi-(a*B215),"-")</f>
         <v>-</v>
       </c>
-      <c r="D215" s="41" t="str">
+      <c r="D215" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12158,21 +11712,18 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G215" s="31" t="str">
-        <f t="shared" ref="G215:G220" si="45">IFERROR(0.193*(E215^0.618)*(F215^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="G215:G246" si="45">IFERROR(0.193*(E215^0.618)*(F215^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H215" s="31" t="str">
-        <f t="shared" ref="H215:H220" si="46">IFERROR(0.027*(E215^0.805)*(F215^0.33)*k_ar/D,"-")</f>
+        <f t="shared" ref="H215:H220" si="46">IFERROR(0.027*(E215^0.805)*(F215^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="I215" s="32" t="str">
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J215" s="96" t="e">
-        <f>D215*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J215" s="66"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="26" t="str">
@@ -12183,7 +11734,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D216" s="41" t="str">
+      <c r="D216" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12207,10 +11758,7 @@
         <f t="shared" ref="I216:I220" si="47">IFERROR(IF(E216&lt;40000,G216,H216),"-")</f>
         <v>-</v>
       </c>
-      <c r="J216" s="96" t="e">
-        <f>D216*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J216" s="66"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="26" t="str">
@@ -12221,7 +11769,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D217" s="41" t="str">
+      <c r="D217" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12245,10 +11793,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J217" s="96" t="e">
-        <f>D217*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J217" s="66"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="26" t="str">
@@ -12259,7 +11804,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D218" s="41" t="str">
+      <c r="D218" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12283,10 +11828,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J218" s="96" t="e">
-        <f>D218*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J218" s="66"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="26" t="str">
@@ -12297,7 +11839,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D219" s="41" t="str">
+      <c r="D219" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12321,10 +11863,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J219" s="96" t="e">
-        <f>D219*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J219" s="66"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="26" t="str">
@@ -12335,7 +11874,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D220" s="41" t="str">
+      <c r="D220" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -12359,13 +11898,19 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J220" s="96" t="e">
-        <f>D220*A_d</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J220" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
@@ -12375,12 +11920,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/materiais/02) Planilhas/Calculadora Freios - Felipe.xlsx
+++ b/materiais/02) Planilhas/Calculadora Freios - Felipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\TCC\materiais\02) Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FC018-A51B-47B0-A561-1D92A5BD867D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B7910-971B-4BED-9696-3D243079E80F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="4" r:id="rId1"/>
@@ -81,6 +81,7 @@
     <definedName name="mi_at">'Força no pedal'!$G$22</definedName>
     <definedName name="mi_d">Calor!$B$18</definedName>
     <definedName name="mi_max">Aceleração!$G$7</definedName>
+    <definedName name="mi_pneu">Menu!$G$13</definedName>
     <definedName name="mp">#REF!</definedName>
     <definedName name="Mt">Menu!$K$10</definedName>
     <definedName name="N_f">'Força no pedal'!$G$20</definedName>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>Fpd</t>
   </si>
@@ -770,6 +771,12 @@
   </si>
   <si>
     <t>Diâmetro disco</t>
+  </si>
+  <si>
+    <t>Os cálculos aqui feitos consideram a desaceleração máxima do protótipo, ou seja, quando a = mi, sendo mi o coeficiente de atrito entre pneu e pista. Para desacelerações diferentes, o cálculo é feito de outra forma.</t>
+  </si>
+  <si>
+    <t>Coef. de atrito entre pneu e pista</t>
   </si>
 </sst>
 </file>
@@ -873,7 +880,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,12 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1075,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,9 +1170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,50 +1278,50 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,6 +1338,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,8 +1350,14 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1360,7 +1367,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1562,14 +1589,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1585,7 +1612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1805609" y="2716696"/>
+          <a:off x="1805609" y="2990023"/>
           <a:ext cx="2054087" cy="347869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1634,14 +1661,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>549970</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168966</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533404</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>135835</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1657,7 +1684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4393100" y="2720009"/>
+          <a:off x="4393100" y="2993336"/>
           <a:ext cx="2054087" cy="347869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1716,14 +1743,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6627</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163996</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1025388</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130865</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1739,7 +1766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955736" y="2715039"/>
+          <a:off x="6955736" y="2988366"/>
           <a:ext cx="2054087" cy="347869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3224,116 +3251,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="28"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="59" t="s">
         <v>148</v>
       </c>
       <c r="L8" s="19"/>
@@ -3341,31 +3368,31 @@
       <c r="N8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="52" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="19"/>
@@ -3373,34 +3400,34 @@
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>0.7572000000000001</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="61">
         <v>0.78280000000000005</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="61">
         <v>0.35</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <f>LF/(LF+LR)</f>
         <v>0.49168831168831173</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <f>LR/(LF+LR)</f>
         <v>0.50831168831168838</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <f>h/(LR+LF)</f>
         <v>0.22727272727272727</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="61">
         <v>280</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="61">
         <v>70</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="64">
         <f>I10+J10</f>
         <v>350</v>
       </c>
@@ -3422,118 +3449,128 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
     </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F12" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+    </row>
     <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="61">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
     </row>
     <row r="24" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
     </row>
     <row r="25" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="C6:K6"/>
     <mergeCell ref="C7:H7"/>
+    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3546,7 +3583,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,52 +3599,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3620,12 +3657,13 @@
         <v>100</v>
       </c>
       <c r="G6" s="14">
+        <f>mi_pneu</f>
         <v>1.5</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="79" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3643,7 +3681,7 @@
       <c r="H7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="81"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3968,7 +4006,7 @@
       <c r="F26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="55">
         <f>Nf/Apistf</f>
         <v>7902031.3630436789</v>
       </c>
@@ -3983,7 +4021,7 @@
       <c r="F27" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="55">
         <f>Nr/Apistr</f>
         <v>2249229.4273992237</v>
       </c>
@@ -4087,7 +4125,7 @@
       <c r="F34" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="97">
         <f>F_pd/rel_ped</f>
         <v>410.31253296230392</v>
       </c>
@@ -4110,7 +4148,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,56 +4165,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4189,12 +4227,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <v>411</v>
+        <f>Aceleração!G34</f>
+        <v>410.31253296230392</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" s="86" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="25" t="s">
@@ -4210,6 +4252,7 @@
         <v>97</v>
       </c>
       <c r="I7" s="1"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -4223,11 +4266,12 @@
       </c>
       <c r="G8" s="20">
         <f>Fpil*rel_pedal</f>
-        <v>2013.9</v>
+        <v>2010.5314115152894</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
@@ -4239,13 +4283,14 @@
       <c r="F9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <f>Aceleração!G32</f>
         <v>0.77842856431027729</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>97</v>
       </c>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
@@ -4263,6 +4308,10 @@
       </c>
       <c r="H10" s="22" t="s">
         <v>97</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f>IF(G30&lt;mi_pneu,"Calcule de outra forma","")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4306,7 +4355,7 @@
       </c>
       <c r="G13" s="21">
         <f>(1-λ)*Fpd</f>
-        <v>1567.6772856644675</v>
+        <v>1565.055080166562</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>12</v>
@@ -4322,7 +4371,7 @@
       </c>
       <c r="G14" s="21">
         <f>(λ)*Fpd</f>
-        <v>446.2227143355326</v>
+        <v>445.47633134872734</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>12</v>
@@ -4382,9 +4431,9 @@
       <c r="F18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="55">
         <f>(1-λ)*Fpd/A_cm</f>
-        <v>7915270.9929758022</v>
+        <v>7902031.3630436789</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>22</v>
@@ -4398,9 +4447,9 @@
       <c r="F19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="55">
         <f>(λ)*Fpd/A_cm</f>
-        <v>2252997.9476547209</v>
+        <v>2249229.4273992232</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>22</v>
@@ -4414,7 +4463,7 @@
       </c>
       <c r="G20" s="21">
         <f>P_f*Apist_f</f>
-        <v>7770.8014668120077</v>
+        <v>7757.8034866054049</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>12</v>
@@ -4428,7 +4477,7 @@
       </c>
       <c r="G21" s="21">
         <f>P_r*Apist_r</f>
-        <v>2045.5418966346742</v>
+        <v>2042.1203817243027</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>12</v>
@@ -4457,7 +4506,7 @@
       </c>
       <c r="G23" s="21">
         <f>N_f*mi_at</f>
-        <v>3108.3205867248034</v>
+        <v>3103.1213946421622</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>12</v>
@@ -4473,7 +4522,7 @@
       </c>
       <c r="G24" s="21">
         <f>N_r*mi_at</f>
-        <v>818.21675865386976</v>
+        <v>816.84815268972113</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>12</v>
@@ -4520,7 +4569,7 @@
       </c>
       <c r="G27" s="21">
         <f>2*Fat_f*Rdf</f>
-        <v>589.95924736036773</v>
+        <v>588.97244070308238</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>13</v>
@@ -4536,7 +4585,7 @@
       </c>
       <c r="G28" s="21">
         <f>2*Fat_r*Rdr</f>
-        <v>130.91468138461917</v>
+        <v>130.69570443035539</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>13</v>
@@ -4550,9 +4599,9 @@
       <c r="F29" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="69">
         <f>((2*Rp*T_max) - (Mt*g*(1-Ψ)*mi_max*Rp^2))/((Mt*g*χ*mi_max*Rp^2)+(2*I_w*g))*g</f>
-        <v>14.771844709685135</v>
+        <v>14.714999999999987</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>17</v>
@@ -4560,16 +4609,16 @@
     </row>
     <row r="30" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="59" t="str">
+      <c r="G30" s="58">
         <f>IF(G29/g&lt;=a,G29/g,"Roda travada")</f>
-        <v>Roda travada</v>
+        <v>1.4999999999999987</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>85</v>
@@ -4577,12 +4626,18 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M2"/>
+    <mergeCell ref="J6:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Roda travada"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Roda travada"</formula>
+      <formula>"Calcule de outra forma"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4596,7 +4651,7 @@
   <dimension ref="B3:K220"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:G220"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,18 +4666,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>149</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -4630,20 +4685,20 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>135</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -4651,7 +4706,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <f>100/3.6</f>
         <v>27.777777777777779</v>
       </c>
@@ -4659,16 +4714,16 @@
         <f>Aceleração!G6</f>
         <v>1.5</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="92">
         <f>ag*g</f>
         <v>14.715</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="42">
+      <c r="E5" s="92"/>
+      <c r="F5" s="41">
         <f>Vi/a</f>
         <v>1.8877185034167705</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="54">
         <v>0.1</v>
       </c>
       <c r="I5" s="21" t="s">
@@ -4682,11 +4737,11 @@
       <c r="C7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="12" t="s">
         <v>131</v>
       </c>
@@ -4698,11 +4753,11 @@
       <c r="C8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="12" t="s">
         <v>60</v>
       </c>
@@ -4726,40 +4781,40 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="90" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="91"/>
+      <c r="F11" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="90" t="s">
+      <c r="G11" s="91"/>
+      <c r="H11" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="92"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="90" t="s">
+      <c r="E12" s="91"/>
+      <c r="F12" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="90" t="s">
+      <c r="G12" s="91"/>
+      <c r="H12" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="92"/>
+      <c r="I12" s="91"/>
       <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
@@ -4838,18 +4893,18 @@
       <c r="E16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="88" t="s">
+      <c r="J16" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="88"/>
+      <c r="K16" s="87"/>
     </row>
     <row r="17" spans="2:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -4876,17 +4931,17 @@
       <c r="I17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="88" t="s">
+      <c r="J17" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="88"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>mi</f>
         <v>0.4</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <f>Pf</f>
         <v>7902031.3630436789</v>
       </c>
@@ -4902,22 +4957,22 @@
         <f>80.8/1000</f>
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>0.109</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="42">
         <f>(F18+r_d)/2</f>
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <f>2*(360*PI()/360)*((r_d^2)-(rt^2))</f>
         <v>3.3629869710735727E-2</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="88">
         <f>2*Rdiscf</f>
         <v>0.1898</v>
       </c>
-      <c r="K18" s="89"/>
+      <c r="K18" s="88"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
@@ -4935,10 +4990,10 @@
       <c r="F21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="90" t="s">
+      <c r="G21" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="92"/>
+      <c r="H21" s="91"/>
       <c r="I21" s="13" t="s">
         <v>112</v>
       </c>
@@ -4977,7 +5032,7 @@
         <f t="shared" ref="C23:C54" si="0">IFERROR(Vi-(a*B23),"-")</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
         <f>2*(Apistf)*gamma*mi_d*pmax*rm*omega0</f>
         <v>55593.924142780656</v>
       </c>
@@ -5001,8 +5056,8 @@
         <f>IFERROR(IF(E23&lt;40000,G23,H23),"-")</f>
         <v>90.277518878071518</v>
       </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="38"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="26">
@@ -5013,7 +5068,7 @@
         <f t="shared" si="0"/>
         <v>26.30627777777778</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <f t="shared" ref="D24:D55" si="6">IFERROR(D23*(1-(B23/ts)),"-")</f>
         <v>55593.924142780656</v>
       </c>
@@ -5037,7 +5092,7 @@
         <f t="shared" ref="I24:I87" si="7">IFERROR(IF(E24&lt;40000,G24,H24),"-")</f>
         <v>86.407401750994438</v>
       </c>
-      <c r="J24" s="67"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="26">
@@ -5048,7 +5103,7 @@
         <f t="shared" si="0"/>
         <v>24.834777777777777</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="39">
         <f t="shared" si="6"/>
         <v>52648.891605240999</v>
       </c>
@@ -5072,7 +5127,7 @@
         <f t="shared" si="7"/>
         <v>82.494814794527812</v>
       </c>
-      <c r="J25" s="67"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="26">
@@ -5083,7 +5138,7 @@
         <f t="shared" si="0"/>
         <v>23.363277777777778</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="39">
         <f t="shared" si="6"/>
         <v>47070.846837448924</v>
       </c>
@@ -5107,7 +5162,7 @@
         <f t="shared" si="7"/>
         <v>78.536729996648063</v>
       </c>
-      <c r="J26" s="67"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="26">
@@ -5118,7 +5173,7 @@
         <f t="shared" si="0"/>
         <v>21.891777777777779</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="39">
         <f t="shared" si="6"/>
         <v>39590.253716347863</v>
       </c>
@@ -5142,7 +5197,7 @@
         <f t="shared" si="7"/>
         <v>74.529697375815189</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
@@ -5153,7 +5208,7 @@
         <f t="shared" si="0"/>
         <v>20.420277777777777</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="39">
         <f t="shared" si="6"/>
         <v>31201.237314868617</v>
       </c>
@@ -5177,7 +5232,7 @@
         <f t="shared" si="7"/>
         <v>70.469753521780063</v>
       </c>
-      <c r="J28" s="67"/>
+      <c r="J28" s="66"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -5189,7 +5244,7 @@
         <f t="shared" si="0"/>
         <v>18.948777777777778</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="39">
         <f t="shared" si="6"/>
         <v>22936.965587279366</v>
       </c>
@@ -5213,7 +5268,7 @@
         <f t="shared" si="7"/>
         <v>66.352302192374225</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
@@ -5224,7 +5279,7 @@
         <f t="shared" si="0"/>
         <v>17.477277777777779</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="39">
         <f t="shared" si="6"/>
         <v>15646.588697156143</v>
       </c>
@@ -5248,7 +5303,7 @@
         <f t="shared" si="7"/>
         <v>62.171955552039563</v>
       </c>
-      <c r="J30" s="67"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="26">
@@ -5259,7 +5314,7 @@
         <f t="shared" si="0"/>
         <v>16.00577777777778</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="39">
         <f t="shared" si="6"/>
         <v>9844.551969654096</v>
       </c>
@@ -5283,7 +5338,7 @@
         <f t="shared" si="7"/>
         <v>57.922318596987843</v>
       </c>
-      <c r="J31" s="67"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="26">
@@ -5294,7 +5349,7 @@
         <f t="shared" si="0"/>
         <v>14.534277777777779</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="39">
         <f t="shared" si="6"/>
         <v>5672.5096013304483</v>
       </c>
@@ -5318,7 +5373,7 @@
         <f t="shared" si="7"/>
         <v>53.595689205789974</v>
       </c>
-      <c r="J32" s="67"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="26">
@@ -5329,7 +5384,7 @@
         <f t="shared" si="0"/>
         <v>13.06277777777778</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="39">
         <f t="shared" si="6"/>
         <v>2968.0498887425356</v>
       </c>
@@ -5353,7 +5408,7 @@
         <f t="shared" si="7"/>
         <v>49.182628639962353</v>
       </c>
-      <c r="J33" s="67"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
@@ -5364,7 +5419,7 @@
         <f t="shared" si="0"/>
         <v>11.59127777777778</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="39">
         <f t="shared" si="6"/>
         <v>1395.7551406800649</v>
       </c>
@@ -5388,7 +5443,7 @@
         <f t="shared" si="7"/>
         <v>44.671325098039361</v>
       </c>
-      <c r="J34" s="67"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="26">
@@ -5399,7 +5454,7 @@
         <f t="shared" si="0"/>
         <v>10.119777777777781</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <f t="shared" si="6"/>
         <v>582.42907963382163</v>
       </c>
@@ -5423,7 +5478,7 @@
         <f t="shared" si="7"/>
         <v>40.046610465977636</v>
       </c>
-      <c r="J35" s="67"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="26">
@@ -5434,7 +5489,7 @@
         <f t="shared" si="0"/>
         <v>8.6482777777777784</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="39">
         <f t="shared" si="6"/>
         <v>212.18590285955688</v>
       </c>
@@ -5458,7 +5513,7 @@
         <f t="shared" si="7"/>
         <v>35.288360410721793</v>
       </c>
-      <c r="J36" s="67"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="26">
@@ -5469,7 +5524,7 @@
         <f t="shared" si="0"/>
         <v>7.1767777777777759</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="39">
         <f t="shared" si="6"/>
         <v>66.061534624488715</v>
       </c>
@@ -5493,7 +5548,7 @@
         <f t="shared" si="7"/>
         <v>30.36871210495892</v>
       </c>
-      <c r="J37" s="67"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="26">
@@ -5504,7 +5559,7 @@
         <f t="shared" si="0"/>
         <v>5.705277777777777</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="39">
         <f t="shared" si="6"/>
         <v>17.067922331721398</v>
       </c>
@@ -5528,7 +5583,7 @@
         <f t="shared" si="7"/>
         <v>25.246777180995764</v>
       </c>
-      <c r="J38" s="67"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="26">
@@ -5539,7 +5594,7 @@
         <f t="shared" si="0"/>
         <v>4.2337777777777745</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <f t="shared" si="6"/>
         <v>3.5055805677122556</v>
       </c>
@@ -5563,7 +5618,7 @@
         <f t="shared" si="7"/>
         <v>19.857255114123923</v>
       </c>
-      <c r="J39" s="67"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="26">
@@ -5574,7 +5629,7 @@
         <f t="shared" si="0"/>
         <v>2.7622777777777721</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="39">
         <f t="shared" si="6"/>
         <v>0.53430656780843078</v>
       </c>
@@ -5598,7 +5653,7 @@
         <f t="shared" si="7"/>
         <v>13.915014481290541</v>
       </c>
-      <c r="J40" s="67"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="26">
@@ -5609,7 +5664,7 @@
         <f t="shared" si="0"/>
         <v>1.2907777777777731</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <f t="shared" si="6"/>
         <v>5.3132513716005872E-2</v>
       </c>
@@ -5633,7 +5688,7 @@
         <f t="shared" si="7"/>
         <v>8.6953417417098091</v>
       </c>
-      <c r="J41" s="67"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="str">
@@ -5644,7 +5699,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="39">
         <f t="shared" si="6"/>
         <v>2.4689616473553464E-3</v>
       </c>
@@ -5668,7 +5723,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J42" s="66"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="26" t="str">
@@ -5679,7 +5734,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D43" s="40" t="str">
+      <c r="D43" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5703,7 +5758,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J43" s="66"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="26" t="str">
@@ -5714,7 +5769,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D44" s="40" t="str">
+      <c r="D44" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5738,7 +5793,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J44" s="66"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="26" t="str">
@@ -5749,7 +5804,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D45" s="40" t="str">
+      <c r="D45" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5773,7 +5828,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J45" s="66"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="26" t="str">
@@ -5784,7 +5839,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D46" s="40" t="str">
+      <c r="D46" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5808,7 +5863,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J46" s="66"/>
+      <c r="J46" s="65"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="26" t="str">
@@ -5819,7 +5874,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D47" s="40" t="str">
+      <c r="D47" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5843,7 +5898,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J47" s="66"/>
+      <c r="J47" s="65"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="26" t="str">
@@ -5854,7 +5909,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D48" s="40" t="str">
+      <c r="D48" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5878,7 +5933,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J48" s="66"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="26" t="str">
@@ -5889,7 +5944,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D49" s="40" t="str">
+      <c r="D49" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5913,7 +5968,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J49" s="66"/>
+      <c r="J49" s="65"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="26" t="str">
@@ -5924,7 +5979,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D50" s="40" t="str">
+      <c r="D50" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5948,7 +6003,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J50" s="66"/>
+      <c r="J50" s="65"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="26" t="str">
@@ -5959,7 +6014,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D51" s="40" t="str">
+      <c r="D51" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -5983,7 +6038,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J51" s="66"/>
+      <c r="J51" s="65"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="26" t="str">
@@ -5994,7 +6049,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D52" s="40" t="str">
+      <c r="D52" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6018,7 +6073,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J52" s="66"/>
+      <c r="J52" s="65"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="26" t="str">
@@ -6029,7 +6084,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D53" s="40" t="str">
+      <c r="D53" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6053,7 +6108,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J53" s="66"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="26" t="str">
@@ -6064,7 +6119,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="D54" s="40" t="str">
+      <c r="D54" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6088,7 +6143,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J54" s="66"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="26" t="str">
@@ -6099,7 +6154,7 @@
         <f t="shared" ref="C55:C86" si="8">IFERROR(Vi-(a*B55),"-")</f>
         <v>-</v>
       </c>
-      <c r="D55" s="40" t="str">
+      <c r="D55" s="39" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
@@ -6123,7 +6178,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J55" s="66"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="26" t="str">
@@ -6134,7 +6189,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D56" s="40" t="str">
+      <c r="D56" s="39" t="str">
         <f t="shared" ref="D56:D87" si="13">IFERROR(D55*(1-(B55/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -6158,7 +6213,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J56" s="66"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="str">
@@ -6169,7 +6224,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D57" s="40" t="str">
+      <c r="D57" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6193,7 +6248,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J57" s="66"/>
+      <c r="J57" s="65"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="26" t="str">
@@ -6204,7 +6259,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D58" s="40" t="str">
+      <c r="D58" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6228,7 +6283,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J58" s="66"/>
+      <c r="J58" s="65"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="str">
@@ -6239,7 +6294,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D59" s="40" t="str">
+      <c r="D59" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6263,7 +6318,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J59" s="66"/>
+      <c r="J59" s="65"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="26" t="str">
@@ -6274,7 +6329,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D60" s="40" t="str">
+      <c r="D60" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6298,7 +6353,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J60" s="66"/>
+      <c r="J60" s="65"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="26" t="str">
@@ -6309,7 +6364,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D61" s="40" t="str">
+      <c r="D61" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6333,7 +6388,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J61" s="66"/>
+      <c r="J61" s="65"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="26" t="str">
@@ -6344,7 +6399,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D62" s="40" t="str">
+      <c r="D62" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6368,7 +6423,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J62" s="66"/>
+      <c r="J62" s="65"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="26" t="str">
@@ -6379,7 +6434,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D63" s="40" t="str">
+      <c r="D63" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6403,7 +6458,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J63" s="66"/>
+      <c r="J63" s="65"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="26" t="str">
@@ -6414,7 +6469,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D64" s="40" t="str">
+      <c r="D64" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6438,7 +6493,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J64" s="66"/>
+      <c r="J64" s="65"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="26" t="str">
@@ -6449,7 +6504,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D65" s="40" t="str">
+      <c r="D65" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6473,7 +6528,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J65" s="66"/>
+      <c r="J65" s="65"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="26" t="str">
@@ -6484,7 +6539,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D66" s="40" t="str">
+      <c r="D66" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6508,7 +6563,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J66" s="66"/>
+      <c r="J66" s="65"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="str">
@@ -6519,7 +6574,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D67" s="40" t="str">
+      <c r="D67" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6543,7 +6598,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J67" s="66"/>
+      <c r="J67" s="65"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="26" t="str">
@@ -6554,7 +6609,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D68" s="40" t="str">
+      <c r="D68" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6578,7 +6633,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J68" s="66"/>
+      <c r="J68" s="65"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="26" t="str">
@@ -6589,7 +6644,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D69" s="40" t="str">
+      <c r="D69" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6613,7 +6668,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J69" s="66"/>
+      <c r="J69" s="65"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="str">
@@ -6624,7 +6679,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D70" s="40" t="str">
+      <c r="D70" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6648,7 +6703,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J70" s="66"/>
+      <c r="J70" s="65"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="26" t="str">
@@ -6659,7 +6714,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D71" s="40" t="str">
+      <c r="D71" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6683,7 +6738,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J71" s="66"/>
+      <c r="J71" s="65"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="26" t="str">
@@ -6694,7 +6749,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D72" s="40" t="str">
+      <c r="D72" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6718,7 +6773,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J72" s="66"/>
+      <c r="J72" s="65"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="26" t="str">
@@ -6729,7 +6784,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D73" s="40" t="str">
+      <c r="D73" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6753,7 +6808,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J73" s="66"/>
+      <c r="J73" s="65"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="26" t="str">
@@ -6764,7 +6819,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D74" s="40" t="str">
+      <c r="D74" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6788,7 +6843,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J74" s="66"/>
+      <c r="J74" s="65"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="26" t="str">
@@ -6799,7 +6854,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D75" s="40" t="str">
+      <c r="D75" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6823,7 +6878,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J75" s="66"/>
+      <c r="J75" s="65"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="26" t="str">
@@ -6834,7 +6889,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D76" s="40" t="str">
+      <c r="D76" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6858,7 +6913,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J76" s="66"/>
+      <c r="J76" s="65"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="26" t="str">
@@ -6869,7 +6924,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D77" s="40" t="str">
+      <c r="D77" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6893,7 +6948,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J77" s="66"/>
+      <c r="J77" s="65"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="26" t="str">
@@ -6904,7 +6959,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D78" s="40" t="str">
+      <c r="D78" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6928,7 +6983,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J78" s="66"/>
+      <c r="J78" s="65"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="26" t="str">
@@ -6939,7 +6994,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D79" s="40" t="str">
+      <c r="D79" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6963,7 +7018,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J79" s="66"/>
+      <c r="J79" s="65"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="26" t="str">
@@ -6974,7 +7029,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D80" s="40" t="str">
+      <c r="D80" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -6998,7 +7053,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J80" s="66"/>
+      <c r="J80" s="65"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="26" t="str">
@@ -7009,7 +7064,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D81" s="40" t="str">
+      <c r="D81" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7033,7 +7088,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J81" s="66"/>
+      <c r="J81" s="65"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="26" t="str">
@@ -7044,7 +7099,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D82" s="40" t="str">
+      <c r="D82" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7068,7 +7123,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J82" s="66"/>
+      <c r="J82" s="65"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="26" t="str">
@@ -7079,7 +7134,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D83" s="40" t="str">
+      <c r="D83" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7103,7 +7158,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J83" s="66"/>
+      <c r="J83" s="65"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="26" t="str">
@@ -7114,7 +7169,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D84" s="40" t="str">
+      <c r="D84" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7138,7 +7193,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J84" s="66"/>
+      <c r="J84" s="65"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="26" t="str">
@@ -7149,7 +7204,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D85" s="40" t="str">
+      <c r="D85" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7173,7 +7228,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J85" s="66"/>
+      <c r="J85" s="65"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="str">
@@ -7184,7 +7239,7 @@
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="D86" s="40" t="str">
+      <c r="D86" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7208,7 +7263,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J86" s="66"/>
+      <c r="J86" s="65"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="26" t="str">
@@ -7219,7 +7274,7 @@
         <f t="shared" ref="C87:C118" si="14">IFERROR(Vi-(a*B87),"-")</f>
         <v>-</v>
       </c>
-      <c r="D87" s="40" t="str">
+      <c r="D87" s="39" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
@@ -7243,7 +7298,7 @@
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="J87" s="66"/>
+      <c r="J87" s="65"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="26" t="str">
@@ -7254,7 +7309,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D88" s="40" t="str">
+      <c r="D88" s="39" t="str">
         <f t="shared" ref="D88:D119" si="20">IFERROR(D87*(1-(B87/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -7278,7 +7333,7 @@
         <f t="shared" ref="I88:I151" si="21">IFERROR(IF(E88&lt;40000,G88,H88),"-")</f>
         <v>-</v>
       </c>
-      <c r="J88" s="66"/>
+      <c r="J88" s="65"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="26" t="str">
@@ -7289,7 +7344,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D89" s="40" t="str">
+      <c r="D89" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7313,7 +7368,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J89" s="66"/>
+      <c r="J89" s="65"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="26" t="str">
@@ -7324,7 +7379,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D90" s="40" t="str">
+      <c r="D90" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7348,7 +7403,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J90" s="66"/>
+      <c r="J90" s="65"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="26" t="str">
@@ -7359,7 +7414,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D91" s="40" t="str">
+      <c r="D91" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7383,7 +7438,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J91" s="66"/>
+      <c r="J91" s="65"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="26" t="str">
@@ -7394,7 +7449,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D92" s="40" t="str">
+      <c r="D92" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7418,7 +7473,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J92" s="66"/>
+      <c r="J92" s="65"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="26" t="str">
@@ -7429,7 +7484,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D93" s="40" t="str">
+      <c r="D93" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7453,7 +7508,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J93" s="66"/>
+      <c r="J93" s="65"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="26" t="str">
@@ -7464,7 +7519,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D94" s="40" t="str">
+      <c r="D94" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7488,7 +7543,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J94" s="66"/>
+      <c r="J94" s="65"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="str">
@@ -7499,7 +7554,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D95" s="40" t="str">
+      <c r="D95" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7523,7 +7578,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J95" s="66"/>
+      <c r="J95" s="65"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="26" t="str">
@@ -7534,7 +7589,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D96" s="40" t="str">
+      <c r="D96" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7558,7 +7613,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J96" s="66"/>
+      <c r="J96" s="65"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="26" t="str">
@@ -7569,7 +7624,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D97" s="40" t="str">
+      <c r="D97" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7593,7 +7648,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J97" s="66"/>
+      <c r="J97" s="65"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="26" t="str">
@@ -7604,7 +7659,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D98" s="40" t="str">
+      <c r="D98" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7628,7 +7683,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J98" s="66"/>
+      <c r="J98" s="65"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="26" t="str">
@@ -7639,7 +7694,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D99" s="40" t="str">
+      <c r="D99" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7663,7 +7718,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J99" s="66"/>
+      <c r="J99" s="65"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="str">
@@ -7674,7 +7729,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D100" s="40" t="str">
+      <c r="D100" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7698,7 +7753,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J100" s="66"/>
+      <c r="J100" s="65"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="26" t="str">
@@ -7709,7 +7764,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D101" s="40" t="str">
+      <c r="D101" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7733,7 +7788,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J101" s="66"/>
+      <c r="J101" s="65"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="26" t="str">
@@ -7744,7 +7799,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D102" s="40" t="str">
+      <c r="D102" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7768,7 +7823,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J102" s="66"/>
+      <c r="J102" s="65"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="26" t="str">
@@ -7779,7 +7834,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D103" s="40" t="str">
+      <c r="D103" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7803,7 +7858,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J103" s="66"/>
+      <c r="J103" s="65"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="26" t="str">
@@ -7814,7 +7869,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D104" s="40" t="str">
+      <c r="D104" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7838,7 +7893,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J104" s="66"/>
+      <c r="J104" s="65"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="26" t="str">
@@ -7849,7 +7904,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D105" s="40" t="str">
+      <c r="D105" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7873,7 +7928,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J105" s="66"/>
+      <c r="J105" s="65"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="26" t="str">
@@ -7884,7 +7939,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D106" s="40" t="str">
+      <c r="D106" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7908,7 +7963,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J106" s="66"/>
+      <c r="J106" s="65"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="26" t="str">
@@ -7919,7 +7974,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D107" s="40" t="str">
+      <c r="D107" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7943,7 +7998,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J107" s="66"/>
+      <c r="J107" s="65"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="26" t="str">
@@ -7954,7 +8009,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D108" s="40" t="str">
+      <c r="D108" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -7978,7 +8033,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J108" s="66"/>
+      <c r="J108" s="65"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="26" t="str">
@@ -7989,7 +8044,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D109" s="40" t="str">
+      <c r="D109" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8013,7 +8068,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J109" s="66"/>
+      <c r="J109" s="65"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="26" t="str">
@@ -8024,7 +8079,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D110" s="40" t="str">
+      <c r="D110" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8048,7 +8103,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J110" s="66"/>
+      <c r="J110" s="65"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="26" t="str">
@@ -8059,7 +8114,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D111" s="40" t="str">
+      <c r="D111" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8083,7 +8138,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J111" s="66"/>
+      <c r="J111" s="65"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="26" t="str">
@@ -8094,7 +8149,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D112" s="40" t="str">
+      <c r="D112" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8118,7 +8173,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J112" s="66"/>
+      <c r="J112" s="65"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="str">
@@ -8129,7 +8184,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D113" s="40" t="str">
+      <c r="D113" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8153,7 +8208,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J113" s="66"/>
+      <c r="J113" s="65"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="26" t="str">
@@ -8164,7 +8219,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D114" s="40" t="str">
+      <c r="D114" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8188,7 +8243,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J114" s="66"/>
+      <c r="J114" s="65"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="26" t="str">
@@ -8199,7 +8254,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D115" s="40" t="str">
+      <c r="D115" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8223,7 +8278,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J115" s="66"/>
+      <c r="J115" s="65"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="26" t="str">
@@ -8234,7 +8289,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D116" s="40" t="str">
+      <c r="D116" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8258,7 +8313,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J116" s="66"/>
+      <c r="J116" s="65"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="26" t="str">
@@ -8269,7 +8324,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D117" s="40" t="str">
+      <c r="D117" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8293,7 +8348,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J117" s="66"/>
+      <c r="J117" s="65"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="26" t="str">
@@ -8304,7 +8359,7 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="D118" s="40" t="str">
+      <c r="D118" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8328,7 +8383,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J118" s="66"/>
+      <c r="J118" s="65"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="26" t="str">
@@ -8339,7 +8394,7 @@
         <f t="shared" ref="C119:C150" si="22">IFERROR(Vi-(a*B119),"-")</f>
         <v>-</v>
       </c>
-      <c r="D119" s="40" t="str">
+      <c r="D119" s="39" t="str">
         <f t="shared" si="20"/>
         <v>-</v>
       </c>
@@ -8363,7 +8418,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J119" s="66"/>
+      <c r="J119" s="65"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="26" t="str">
@@ -8374,7 +8429,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D120" s="40" t="str">
+      <c r="D120" s="39" t="str">
         <f t="shared" ref="D120:D151" si="27">IFERROR(D119*(1-(B119/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -8398,7 +8453,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J120" s="66"/>
+      <c r="J120" s="65"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="26" t="str">
@@ -8409,7 +8464,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D121" s="40" t="str">
+      <c r="D121" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8433,7 +8488,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J121" s="66"/>
+      <c r="J121" s="65"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="26" t="str">
@@ -8444,7 +8499,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D122" s="40" t="str">
+      <c r="D122" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8468,7 +8523,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J122" s="66"/>
+      <c r="J122" s="65"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="26" t="str">
@@ -8479,7 +8534,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D123" s="40" t="str">
+      <c r="D123" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8503,7 +8558,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J123" s="66"/>
+      <c r="J123" s="65"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="26" t="str">
@@ -8514,7 +8569,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D124" s="40" t="str">
+      <c r="D124" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8538,7 +8593,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J124" s="66"/>
+      <c r="J124" s="65"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="26" t="str">
@@ -8549,7 +8604,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D125" s="40" t="str">
+      <c r="D125" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8573,7 +8628,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J125" s="66"/>
+      <c r="J125" s="65"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="26" t="str">
@@ -8584,7 +8639,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D126" s="40" t="str">
+      <c r="D126" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8608,7 +8663,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J126" s="66"/>
+      <c r="J126" s="65"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="26" t="str">
@@ -8619,7 +8674,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D127" s="40" t="str">
+      <c r="D127" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8643,7 +8698,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J127" s="66"/>
+      <c r="J127" s="65"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="26" t="str">
@@ -8654,7 +8709,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D128" s="40" t="str">
+      <c r="D128" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8678,7 +8733,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J128" s="66"/>
+      <c r="J128" s="65"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="26" t="str">
@@ -8689,7 +8744,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D129" s="40" t="str">
+      <c r="D129" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8713,7 +8768,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J129" s="66"/>
+      <c r="J129" s="65"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="26" t="str">
@@ -8724,7 +8779,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D130" s="40" t="str">
+      <c r="D130" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8748,7 +8803,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J130" s="66"/>
+      <c r="J130" s="65"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="26" t="str">
@@ -8759,7 +8814,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D131" s="40" t="str">
+      <c r="D131" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8783,7 +8838,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J131" s="66"/>
+      <c r="J131" s="65"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="26" t="str">
@@ -8794,7 +8849,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D132" s="40" t="str">
+      <c r="D132" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8818,7 +8873,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J132" s="66"/>
+      <c r="J132" s="65"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="26" t="str">
@@ -8829,7 +8884,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D133" s="40" t="str">
+      <c r="D133" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8853,7 +8908,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J133" s="66"/>
+      <c r="J133" s="65"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="26" t="str">
@@ -8864,7 +8919,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D134" s="40" t="str">
+      <c r="D134" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8888,7 +8943,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J134" s="66"/>
+      <c r="J134" s="65"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="26" t="str">
@@ -8899,7 +8954,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D135" s="40" t="str">
+      <c r="D135" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8923,7 +8978,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J135" s="66"/>
+      <c r="J135" s="65"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="str">
@@ -8934,7 +8989,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D136" s="40" t="str">
+      <c r="D136" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8958,7 +9013,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J136" s="66"/>
+      <c r="J136" s="65"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="26" t="str">
@@ -8969,7 +9024,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D137" s="40" t="str">
+      <c r="D137" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -8993,7 +9048,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J137" s="66"/>
+      <c r="J137" s="65"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="26" t="str">
@@ -9004,7 +9059,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D138" s="40" t="str">
+      <c r="D138" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9028,7 +9083,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J138" s="66"/>
+      <c r="J138" s="65"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="26" t="str">
@@ -9039,7 +9094,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D139" s="40" t="str">
+      <c r="D139" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9063,7 +9118,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J139" s="66"/>
+      <c r="J139" s="65"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="str">
@@ -9074,7 +9129,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D140" s="40" t="str">
+      <c r="D140" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9098,7 +9153,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J140" s="66"/>
+      <c r="J140" s="65"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="26" t="str">
@@ -9109,7 +9164,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D141" s="40" t="str">
+      <c r="D141" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9133,7 +9188,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J141" s="66"/>
+      <c r="J141" s="65"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="26" t="str">
@@ -9144,7 +9199,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D142" s="40" t="str">
+      <c r="D142" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9168,7 +9223,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J142" s="66"/>
+      <c r="J142" s="65"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="26" t="str">
@@ -9179,7 +9234,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D143" s="40" t="str">
+      <c r="D143" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9203,7 +9258,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J143" s="66"/>
+      <c r="J143" s="65"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="26" t="str">
@@ -9214,7 +9269,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D144" s="40" t="str">
+      <c r="D144" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9238,7 +9293,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J144" s="66"/>
+      <c r="J144" s="65"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="26" t="str">
@@ -9249,7 +9304,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D145" s="40" t="str">
+      <c r="D145" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9273,7 +9328,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J145" s="66"/>
+      <c r="J145" s="65"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="26" t="str">
@@ -9284,7 +9339,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D146" s="40" t="str">
+      <c r="D146" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9308,7 +9363,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J146" s="66"/>
+      <c r="J146" s="65"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="26" t="str">
@@ -9319,7 +9374,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D147" s="40" t="str">
+      <c r="D147" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9343,7 +9398,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J147" s="66"/>
+      <c r="J147" s="65"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="26" t="str">
@@ -9354,7 +9409,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D148" s="40" t="str">
+      <c r="D148" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9378,7 +9433,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J148" s="66"/>
+      <c r="J148" s="65"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="26" t="str">
@@ -9389,7 +9444,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D149" s="40" t="str">
+      <c r="D149" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9413,7 +9468,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J149" s="66"/>
+      <c r="J149" s="65"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="26" t="str">
@@ -9424,7 +9479,7 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="D150" s="40" t="str">
+      <c r="D150" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9448,7 +9503,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J150" s="66"/>
+      <c r="J150" s="65"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="26" t="str">
@@ -9459,7 +9514,7 @@
         <f t="shared" ref="C151:C182" si="28">IFERROR(Vi-(a*B151),"-")</f>
         <v>-</v>
       </c>
-      <c r="D151" s="40" t="str">
+      <c r="D151" s="39" t="str">
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
@@ -9483,7 +9538,7 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
-      <c r="J151" s="66"/>
+      <c r="J151" s="65"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="26" t="str">
@@ -9494,7 +9549,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D152" s="40" t="str">
+      <c r="D152" s="39" t="str">
         <f t="shared" ref="D152:D183" si="34">IFERROR(D151*(1-(B151/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -9518,7 +9573,7 @@
         <f t="shared" ref="I152:I215" si="35">IFERROR(IF(E152&lt;40000,G152,H152),"-")</f>
         <v>-</v>
       </c>
-      <c r="J152" s="66"/>
+      <c r="J152" s="65"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="26" t="str">
@@ -9529,7 +9584,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D153" s="40" t="str">
+      <c r="D153" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9553,7 +9608,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J153" s="66"/>
+      <c r="J153" s="65"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="26" t="str">
@@ -9564,7 +9619,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D154" s="40" t="str">
+      <c r="D154" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9588,7 +9643,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J154" s="66"/>
+      <c r="J154" s="65"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="26" t="str">
@@ -9599,7 +9654,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D155" s="40" t="str">
+      <c r="D155" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9623,7 +9678,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J155" s="66"/>
+      <c r="J155" s="65"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="26" t="str">
@@ -9634,7 +9689,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D156" s="40" t="str">
+      <c r="D156" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9658,7 +9713,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J156" s="66"/>
+      <c r="J156" s="65"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="26" t="str">
@@ -9669,7 +9724,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D157" s="40" t="str">
+      <c r="D157" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9693,7 +9748,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J157" s="66"/>
+      <c r="J157" s="65"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="26" t="str">
@@ -9704,7 +9759,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D158" s="40" t="str">
+      <c r="D158" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9728,7 +9783,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J158" s="66"/>
+      <c r="J158" s="65"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="26" t="str">
@@ -9739,7 +9794,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D159" s="40" t="str">
+      <c r="D159" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9763,7 +9818,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J159" s="66"/>
+      <c r="J159" s="65"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="26" t="str">
@@ -9774,7 +9829,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D160" s="40" t="str">
+      <c r="D160" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9798,7 +9853,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J160" s="66"/>
+      <c r="J160" s="65"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="26" t="str">
@@ -9809,7 +9864,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D161" s="40" t="str">
+      <c r="D161" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9833,7 +9888,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J161" s="66"/>
+      <c r="J161" s="65"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="26" t="str">
@@ -9844,7 +9899,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D162" s="40" t="str">
+      <c r="D162" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9868,7 +9923,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J162" s="66"/>
+      <c r="J162" s="65"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="26" t="str">
@@ -9879,7 +9934,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D163" s="40" t="str">
+      <c r="D163" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9903,7 +9958,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J163" s="66"/>
+      <c r="J163" s="65"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="26" t="str">
@@ -9914,7 +9969,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D164" s="40" t="str">
+      <c r="D164" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9938,7 +9993,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J164" s="66"/>
+      <c r="J164" s="65"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="26" t="str">
@@ -9949,7 +10004,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D165" s="40" t="str">
+      <c r="D165" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -9973,7 +10028,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J165" s="66"/>
+      <c r="J165" s="65"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="26" t="str">
@@ -9984,7 +10039,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D166" s="40" t="str">
+      <c r="D166" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10008,7 +10063,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J166" s="66"/>
+      <c r="J166" s="65"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="str">
@@ -10019,7 +10074,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D167" s="40" t="str">
+      <c r="D167" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10043,7 +10098,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J167" s="66"/>
+      <c r="J167" s="65"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="26" t="str">
@@ -10054,7 +10109,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D168" s="40" t="str">
+      <c r="D168" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10078,7 +10133,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J168" s="66"/>
+      <c r="J168" s="65"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="26" t="str">
@@ -10089,7 +10144,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D169" s="40" t="str">
+      <c r="D169" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10113,7 +10168,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J169" s="66"/>
+      <c r="J169" s="65"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="26" t="str">
@@ -10124,7 +10179,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D170" s="40" t="str">
+      <c r="D170" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10148,7 +10203,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J170" s="66"/>
+      <c r="J170" s="65"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="26" t="str">
@@ -10159,7 +10214,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D171" s="40" t="str">
+      <c r="D171" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10183,7 +10238,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J171" s="66"/>
+      <c r="J171" s="65"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="26" t="str">
@@ -10194,7 +10249,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D172" s="40" t="str">
+      <c r="D172" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10218,7 +10273,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J172" s="66"/>
+      <c r="J172" s="65"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="26" t="str">
@@ -10229,7 +10284,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D173" s="40" t="str">
+      <c r="D173" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10253,7 +10308,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J173" s="66"/>
+      <c r="J173" s="65"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="26" t="str">
@@ -10264,7 +10319,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D174" s="40" t="str">
+      <c r="D174" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10288,7 +10343,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J174" s="66"/>
+      <c r="J174" s="65"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="26" t="str">
@@ -10299,7 +10354,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D175" s="40" t="str">
+      <c r="D175" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10323,7 +10378,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J175" s="66"/>
+      <c r="J175" s="65"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="26" t="str">
@@ -10334,7 +10389,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D176" s="40" t="str">
+      <c r="D176" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10358,7 +10413,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J176" s="66"/>
+      <c r="J176" s="65"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="26" t="str">
@@ -10369,7 +10424,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D177" s="40" t="str">
+      <c r="D177" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10393,7 +10448,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J177" s="66"/>
+      <c r="J177" s="65"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="26" t="str">
@@ -10404,7 +10459,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D178" s="40" t="str">
+      <c r="D178" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10428,7 +10483,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J178" s="66"/>
+      <c r="J178" s="65"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="26" t="str">
@@ -10439,7 +10494,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D179" s="40" t="str">
+      <c r="D179" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10463,7 +10518,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J179" s="66"/>
+      <c r="J179" s="65"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="26" t="str">
@@ -10474,7 +10529,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D180" s="40" t="str">
+      <c r="D180" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10498,7 +10553,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J180" s="66"/>
+      <c r="J180" s="65"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="26" t="str">
@@ -10509,7 +10564,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D181" s="40" t="str">
+      <c r="D181" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10533,7 +10588,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J181" s="66"/>
+      <c r="J181" s="65"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="26" t="str">
@@ -10544,7 +10599,7 @@
         <f t="shared" si="28"/>
         <v>-</v>
       </c>
-      <c r="D182" s="40" t="str">
+      <c r="D182" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10568,7 +10623,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J182" s="66"/>
+      <c r="J182" s="65"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="26" t="str">
@@ -10579,7 +10634,7 @@
         <f t="shared" ref="C183:C214" si="36">IFERROR(Vi-(a*B183),"-")</f>
         <v>-</v>
       </c>
-      <c r="D183" s="40" t="str">
+      <c r="D183" s="39" t="str">
         <f t="shared" si="34"/>
         <v>-</v>
       </c>
@@ -10603,7 +10658,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J183" s="66"/>
+      <c r="J183" s="65"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="26" t="str">
@@ -10614,7 +10669,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D184" s="40" t="str">
+      <c r="D184" s="39" t="str">
         <f t="shared" ref="D184:D220" si="41">IFERROR(D183*(1-(B183/ts)),"-")</f>
         <v>-</v>
       </c>
@@ -10638,7 +10693,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J184" s="66"/>
+      <c r="J184" s="65"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="26" t="str">
@@ -10649,7 +10704,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D185" s="40" t="str">
+      <c r="D185" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10673,7 +10728,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J185" s="66"/>
+      <c r="J185" s="65"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="26" t="str">
@@ -10684,7 +10739,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D186" s="40" t="str">
+      <c r="D186" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10708,7 +10763,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J186" s="66"/>
+      <c r="J186" s="65"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="26" t="str">
@@ -10719,7 +10774,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D187" s="40" t="str">
+      <c r="D187" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10743,7 +10798,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J187" s="66"/>
+      <c r="J187" s="65"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="26" t="str">
@@ -10754,7 +10809,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D188" s="40" t="str">
+      <c r="D188" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10778,7 +10833,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J188" s="66"/>
+      <c r="J188" s="65"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="26" t="str">
@@ -10789,7 +10844,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D189" s="40" t="str">
+      <c r="D189" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10813,7 +10868,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J189" s="66"/>
+      <c r="J189" s="65"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="str">
@@ -10824,7 +10879,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D190" s="40" t="str">
+      <c r="D190" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10848,7 +10903,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J190" s="66"/>
+      <c r="J190" s="65"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" s="26" t="str">
@@ -10859,7 +10914,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D191" s="40" t="str">
+      <c r="D191" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10883,7 +10938,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J191" s="66"/>
+      <c r="J191" s="65"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" s="26" t="str">
@@ -10894,7 +10949,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D192" s="40" t="str">
+      <c r="D192" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10918,7 +10973,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J192" s="66"/>
+      <c r="J192" s="65"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="26" t="str">
@@ -10929,7 +10984,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D193" s="40" t="str">
+      <c r="D193" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10953,7 +11008,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J193" s="66"/>
+      <c r="J193" s="65"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="str">
@@ -10964,7 +11019,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D194" s="40" t="str">
+      <c r="D194" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -10988,7 +11043,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J194" s="66"/>
+      <c r="J194" s="65"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="26" t="str">
@@ -10999,7 +11054,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D195" s="40" t="str">
+      <c r="D195" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11023,7 +11078,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J195" s="66"/>
+      <c r="J195" s="65"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="26" t="str">
@@ -11034,7 +11089,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D196" s="40" t="str">
+      <c r="D196" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11058,7 +11113,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J196" s="66"/>
+      <c r="J196" s="65"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="26" t="str">
@@ -11069,7 +11124,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D197" s="40" t="str">
+      <c r="D197" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11093,7 +11148,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J197" s="66"/>
+      <c r="J197" s="65"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="26" t="str">
@@ -11104,7 +11159,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D198" s="40" t="str">
+      <c r="D198" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11128,7 +11183,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J198" s="66"/>
+      <c r="J198" s="65"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="26" t="str">
@@ -11139,7 +11194,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D199" s="40" t="str">
+      <c r="D199" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11163,7 +11218,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J199" s="66"/>
+      <c r="J199" s="65"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="26" t="str">
@@ -11174,7 +11229,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D200" s="40" t="str">
+      <c r="D200" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11198,7 +11253,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J200" s="66"/>
+      <c r="J200" s="65"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="26" t="str">
@@ -11209,7 +11264,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D201" s="40" t="str">
+      <c r="D201" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11233,7 +11288,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J201" s="66"/>
+      <c r="J201" s="65"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="26" t="str">
@@ -11244,7 +11299,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D202" s="40" t="str">
+      <c r="D202" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11268,7 +11323,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J202" s="66"/>
+      <c r="J202" s="65"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="26" t="str">
@@ -11279,7 +11334,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D203" s="40" t="str">
+      <c r="D203" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11303,7 +11358,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J203" s="66"/>
+      <c r="J203" s="65"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="26" t="str">
@@ -11314,7 +11369,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D204" s="40" t="str">
+      <c r="D204" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11338,7 +11393,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J204" s="66"/>
+      <c r="J204" s="65"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="26" t="str">
@@ -11349,7 +11404,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D205" s="40" t="str">
+      <c r="D205" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11373,7 +11428,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J205" s="66"/>
+      <c r="J205" s="65"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="26" t="str">
@@ -11384,7 +11439,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D206" s="40" t="str">
+      <c r="D206" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11408,7 +11463,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J206" s="66"/>
+      <c r="J206" s="65"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="26" t="str">
@@ -11419,7 +11474,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D207" s="40" t="str">
+      <c r="D207" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11443,7 +11498,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J207" s="66"/>
+      <c r="J207" s="65"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="26" t="str">
@@ -11454,7 +11509,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D208" s="40" t="str">
+      <c r="D208" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11478,7 +11533,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J208" s="66"/>
+      <c r="J208" s="65"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B209" s="26" t="str">
@@ -11489,7 +11544,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D209" s="40" t="str">
+      <c r="D209" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11513,7 +11568,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J209" s="66"/>
+      <c r="J209" s="65"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210" s="26" t="str">
@@ -11524,7 +11579,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D210" s="40" t="str">
+      <c r="D210" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11548,7 +11603,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J210" s="66"/>
+      <c r="J210" s="65"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B211" s="26" t="str">
@@ -11559,7 +11614,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D211" s="40" t="str">
+      <c r="D211" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11583,7 +11638,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J211" s="66"/>
+      <c r="J211" s="65"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B212" s="26" t="str">
@@ -11594,7 +11649,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D212" s="40" t="str">
+      <c r="D212" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11618,7 +11673,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J212" s="66"/>
+      <c r="J212" s="65"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B213" s="26" t="str">
@@ -11629,7 +11684,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D213" s="40" t="str">
+      <c r="D213" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11653,7 +11708,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J213" s="66"/>
+      <c r="J213" s="65"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B214" s="26" t="str">
@@ -11664,7 +11719,7 @@
         <f t="shared" si="36"/>
         <v>-</v>
       </c>
-      <c r="D214" s="40" t="str">
+      <c r="D214" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11688,7 +11743,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J214" s="66"/>
+      <c r="J214" s="65"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B215" s="26" t="str">
@@ -11699,7 +11754,7 @@
         <f t="shared" ref="C215:C220" si="42">IFERROR(Vi-(a*B215),"-")</f>
         <v>-</v>
       </c>
-      <c r="D215" s="40" t="str">
+      <c r="D215" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11712,7 +11767,7 @@
         <v>0.66473501538461544</v>
       </c>
       <c r="G215" s="31" t="str">
-        <f t="shared" ref="G215:G246" si="45">IFERROR(0.193*(E215^0.618)*(F215^0.33)*k_ar/(2*r_d),"-")</f>
+        <f t="shared" ref="G215:G220" si="45">IFERROR(0.193*(E215^0.618)*(F215^0.33)*k_ar/(2*r_d),"-")</f>
         <v>-</v>
       </c>
       <c r="H215" s="31" t="str">
@@ -11723,7 +11778,7 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
-      <c r="J215" s="66"/>
+      <c r="J215" s="65"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B216" s="26" t="str">
@@ -11734,7 +11789,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D216" s="40" t="str">
+      <c r="D216" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11758,7 +11813,7 @@
         <f t="shared" ref="I216:I220" si="47">IFERROR(IF(E216&lt;40000,G216,H216),"-")</f>
         <v>-</v>
       </c>
-      <c r="J216" s="66"/>
+      <c r="J216" s="65"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B217" s="26" t="str">
@@ -11769,7 +11824,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D217" s="40" t="str">
+      <c r="D217" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11793,7 +11848,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J217" s="66"/>
+      <c r="J217" s="65"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B218" s="26" t="str">
@@ -11804,7 +11859,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D218" s="40" t="str">
+      <c r="D218" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11828,7 +11883,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J218" s="66"/>
+      <c r="J218" s="65"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B219" s="26" t="str">
@@ -11839,7 +11894,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D219" s="40" t="str">
+      <c r="D219" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11863,7 +11918,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J219" s="66"/>
+      <c r="J219" s="65"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B220" s="26" t="str">
@@ -11874,7 +11929,7 @@
         <f t="shared" si="42"/>
         <v>-</v>
       </c>
-      <c r="D220" s="40" t="str">
+      <c r="D220" s="39" t="str">
         <f t="shared" si="41"/>
         <v>-</v>
       </c>
@@ -11898,7 +11953,7 @@
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="J220" s="66"/>
+      <c r="J220" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="19">
